--- a/SoilDataComplete.xlsx
+++ b/SoilDataComplete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdph224\Documents\GitHub\Rhizosphere-sequencing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D778E90-5417-41B7-BBA9-DEE75C3B328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE6AA26-E768-4FF7-AE9E-A547B6650897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -625,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P241"/>
+  <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="J248" sqref="J248"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="R140" sqref="R140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5897,7 +5897,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>61</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>61</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>61</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>61</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>61</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>61</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>61</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>61</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>61</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>15</v>
       </c>
@@ -6357,20 +6357,17 @@
       <c r="L122" s="1">
         <v>1.4</v>
       </c>
-      <c r="M122" s="1">
-        <v>6.05</v>
+      <c r="M122" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P122" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>15</v>
       </c>
@@ -6407,20 +6404,17 @@
       <c r="L123" s="1">
         <v>1.4</v>
       </c>
-      <c r="M123" s="1">
-        <v>5.89</v>
+      <c r="M123" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P123" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>15</v>
       </c>
@@ -6457,20 +6451,17 @@
       <c r="L124" s="1">
         <v>1.2</v>
       </c>
-      <c r="M124" s="1">
-        <v>6.39</v>
+      <c r="M124" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P124" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>15</v>
       </c>
@@ -6507,20 +6498,17 @@
       <c r="L125" s="1">
         <v>0.7</v>
       </c>
-      <c r="M125" s="1">
-        <v>5.93</v>
+      <c r="M125" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P125" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>15</v>
       </c>
@@ -6557,20 +6545,17 @@
       <c r="L126" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M126" s="1">
-        <v>6.27</v>
+      <c r="M126" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P126" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>15</v>
       </c>
@@ -6607,20 +6592,17 @@
       <c r="L127" s="1">
         <v>0.45</v>
       </c>
-      <c r="M127" s="1">
-        <v>5.78</v>
+      <c r="M127" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P127" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>15</v>
       </c>
@@ -6657,20 +6639,17 @@
       <c r="L128" s="1">
         <v>0.7</v>
       </c>
-      <c r="M128" s="1">
-        <v>6</v>
+      <c r="M128" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P128" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>15</v>
       </c>
@@ -6707,20 +6686,17 @@
       <c r="L129" s="1">
         <v>0.4</v>
       </c>
-      <c r="M129" s="1">
-        <v>5.79</v>
+      <c r="M129" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P129" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>15</v>
       </c>
@@ -6757,20 +6733,17 @@
       <c r="L130" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M130" s="1">
-        <v>5.59</v>
+      <c r="M130" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P130" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>15</v>
       </c>
@@ -6807,20 +6780,17 @@
       <c r="L131" s="1">
         <v>0.35</v>
       </c>
-      <c r="M131" s="1">
-        <v>5.67</v>
+      <c r="M131" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P131" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>15</v>
       </c>
@@ -6857,20 +6827,17 @@
       <c r="L132" s="1">
         <v>0.8</v>
       </c>
-      <c r="M132" s="1">
-        <v>5.96</v>
+      <c r="M132" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P132" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>15</v>
       </c>
@@ -6907,20 +6874,17 @@
       <c r="L133" s="1">
         <v>0.85</v>
       </c>
-      <c r="M133" s="1">
-        <v>5.61</v>
+      <c r="M133" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P133" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>15</v>
       </c>
@@ -6957,20 +6921,17 @@
       <c r="L134" s="1">
         <v>1</v>
       </c>
-      <c r="M134" s="1">
-        <v>6.04</v>
+      <c r="M134" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P134" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>15</v>
       </c>
@@ -7007,20 +6968,17 @@
       <c r="L135" s="1">
         <v>0.6</v>
       </c>
-      <c r="M135" s="1">
-        <v>5.59</v>
+      <c r="M135" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P135" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>15</v>
       </c>
@@ -7057,20 +7015,17 @@
       <c r="L136" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M136" s="1">
-        <v>5.96</v>
+      <c r="M136" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P136" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>15</v>
       </c>
@@ -7107,20 +7062,17 @@
       <c r="L137" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M137" s="1">
-        <v>5.6</v>
+      <c r="M137" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P137" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>15</v>
       </c>
@@ -7157,20 +7109,17 @@
       <c r="L138" s="1">
         <v>0.7</v>
       </c>
-      <c r="M138" s="1">
-        <v>6.2</v>
+      <c r="M138" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P138" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>15</v>
       </c>
@@ -7207,20 +7156,17 @@
       <c r="L139" s="1">
         <v>0.5</v>
       </c>
-      <c r="M139" s="1">
-        <v>5.77</v>
+      <c r="M139" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P139" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>15</v>
       </c>
@@ -7257,20 +7203,17 @@
       <c r="L140" s="1">
         <v>0.6</v>
       </c>
-      <c r="M140" s="1">
-        <v>5.92</v>
+      <c r="M140" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P140" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>15</v>
       </c>
@@ -7307,20 +7250,17 @@
       <c r="L141" s="1">
         <v>1</v>
       </c>
-      <c r="M141" s="1">
-        <v>5.8</v>
+      <c r="M141" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P141" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>15</v>
       </c>
@@ -7357,20 +7297,17 @@
       <c r="L142" s="1">
         <v>1.2</v>
       </c>
-      <c r="M142" s="1">
-        <v>5.64</v>
+      <c r="M142" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P142" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>15</v>
       </c>
@@ -7407,20 +7344,17 @@
       <c r="L143" s="1">
         <v>0.25</v>
       </c>
-      <c r="M143" s="1">
-        <v>5.75</v>
+      <c r="M143" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P143" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>15</v>
       </c>
@@ -7457,20 +7391,17 @@
       <c r="L144" s="1">
         <v>0.65</v>
       </c>
-      <c r="M144" s="1">
-        <v>6</v>
+      <c r="M144" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P144" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>15</v>
       </c>
@@ -7507,20 +7438,17 @@
       <c r="L145" s="1">
         <v>0.4</v>
       </c>
-      <c r="M145" s="1">
-        <v>5.78</v>
+      <c r="M145" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P145" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>15</v>
       </c>
@@ -7557,20 +7485,17 @@
       <c r="L146" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="M146" s="1">
-        <v>5.88</v>
+      <c r="M146" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P146" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>15</v>
       </c>
@@ -7607,20 +7532,17 @@
       <c r="L147" s="1">
         <v>0.95</v>
       </c>
-      <c r="M147" s="1">
-        <v>5.76</v>
+      <c r="M147" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P147" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>15</v>
       </c>
@@ -7657,20 +7579,17 @@
       <c r="L148" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M148" s="1">
-        <v>6.1</v>
+      <c r="M148" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P148" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>15</v>
       </c>
@@ -7707,20 +7626,17 @@
       <c r="L149" s="1">
         <v>0.5</v>
       </c>
-      <c r="M149" s="1">
-        <v>5.69</v>
+      <c r="M149" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P149" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>15</v>
       </c>
@@ -7757,20 +7673,17 @@
       <c r="L150" s="1">
         <v>0.7</v>
       </c>
-      <c r="M150" s="1">
-        <v>6.03</v>
+      <c r="M150" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P150" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>15</v>
       </c>
@@ -7807,20 +7720,17 @@
       <c r="L151" s="1">
         <v>0.4</v>
       </c>
-      <c r="M151" s="1">
-        <v>5.67</v>
+      <c r="M151" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P151" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>15</v>
       </c>
@@ -7857,20 +7767,17 @@
       <c r="L152" s="1">
         <v>0.9</v>
       </c>
-      <c r="M152" s="1">
-        <v>5.98</v>
+      <c r="M152" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P152" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>15</v>
       </c>
@@ -7907,20 +7814,17 @@
       <c r="L153" s="1">
         <v>0.7</v>
       </c>
-      <c r="M153" s="1">
-        <v>5.89</v>
+      <c r="M153" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P153" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>15</v>
       </c>
@@ -7957,20 +7861,17 @@
       <c r="L154" s="1">
         <v>0.65</v>
       </c>
-      <c r="M154" s="1">
-        <v>5.74</v>
+      <c r="M154" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P154" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>15</v>
       </c>
@@ -8007,20 +7908,17 @@
       <c r="L155" s="1">
         <v>0.4</v>
       </c>
-      <c r="M155" s="1">
-        <v>5.83</v>
+      <c r="M155" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P155" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>15</v>
       </c>
@@ -8057,20 +7955,17 @@
       <c r="L156" s="1">
         <v>0.7</v>
       </c>
-      <c r="M156" s="1">
-        <v>5.8</v>
+      <c r="M156" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P156" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>15</v>
       </c>
@@ -8107,20 +8002,17 @@
       <c r="L157" s="1">
         <v>0.4</v>
       </c>
-      <c r="M157" s="1">
-        <v>5.74</v>
+      <c r="M157" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P157" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>15</v>
       </c>
@@ -8157,20 +8049,17 @@
       <c r="L158" s="1">
         <v>1.6</v>
       </c>
-      <c r="M158" s="1">
-        <v>6.11</v>
+      <c r="M158" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P158" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>15</v>
       </c>
@@ -8207,20 +8096,17 @@
       <c r="L159" s="1">
         <v>0.5</v>
       </c>
-      <c r="M159" s="1">
-        <v>5.76</v>
+      <c r="M159" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P159" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>15</v>
       </c>
@@ -8257,20 +8143,17 @@
       <c r="L160" s="1">
         <v>0.9</v>
       </c>
-      <c r="M160" s="1">
-        <v>5.94</v>
+      <c r="M160" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P160" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>15</v>
       </c>
@@ -8307,20 +8190,17 @@
       <c r="L161" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M161" s="1">
-        <v>5.78</v>
+      <c r="M161" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P161" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>15</v>
       </c>
@@ -8357,20 +8237,17 @@
       <c r="L162" s="1">
         <v>0.8</v>
       </c>
-      <c r="M162" s="1">
-        <v>6.04</v>
+      <c r="M162" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P162" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>15</v>
       </c>
@@ -8407,20 +8284,17 @@
       <c r="L163" s="1">
         <v>0.25</v>
       </c>
-      <c r="M163" s="1">
-        <v>5.63</v>
+      <c r="M163" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P163" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>15</v>
       </c>
@@ -8457,20 +8331,17 @@
       <c r="L164" s="1">
         <v>0.85</v>
       </c>
-      <c r="M164" s="1">
-        <v>6.17</v>
+      <c r="M164" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P164" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>15</v>
       </c>
@@ -8507,20 +8378,17 @@
       <c r="L165" s="1">
         <v>0.3</v>
       </c>
-      <c r="M165" s="1">
-        <v>5.83</v>
+      <c r="M165" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P165" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>15</v>
       </c>
@@ -8557,20 +8425,17 @@
       <c r="L166" s="1">
         <v>0.95</v>
       </c>
-      <c r="M166" s="1">
-        <v>6.14</v>
+      <c r="M166" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P166" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>15</v>
       </c>
@@ -8607,20 +8472,17 @@
       <c r="L167" s="1">
         <v>0.45</v>
       </c>
-      <c r="M167" s="1">
-        <v>6</v>
+      <c r="M167" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P167" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>15</v>
       </c>
@@ -8657,20 +8519,17 @@
       <c r="L168" s="1">
         <v>0.85</v>
       </c>
-      <c r="M168" s="1">
-        <v>6.25</v>
+      <c r="M168" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P168" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>15</v>
       </c>
@@ -8707,20 +8566,17 @@
       <c r="L169" s="1">
         <v>1.05</v>
       </c>
-      <c r="M169" s="1">
-        <v>5.98</v>
+      <c r="M169" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P169" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>15</v>
       </c>
@@ -8757,20 +8613,17 @@
       <c r="L170" s="1">
         <v>0.85</v>
       </c>
-      <c r="M170" s="1">
-        <v>6.12</v>
+      <c r="M170" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P170" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>15</v>
       </c>
@@ -8807,20 +8660,17 @@
       <c r="L171" s="1">
         <v>0.5</v>
       </c>
-      <c r="M171" s="1">
-        <v>5.63</v>
+      <c r="M171" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P171" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>15</v>
       </c>
@@ -8857,20 +8707,17 @@
       <c r="L172" s="1">
         <v>1.2</v>
       </c>
-      <c r="M172" s="1">
-        <v>5.95</v>
+      <c r="M172" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P172" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>15</v>
       </c>
@@ -8907,20 +8754,17 @@
       <c r="L173" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M173" s="1">
-        <v>5.64</v>
+      <c r="M173" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P173" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>15</v>
       </c>
@@ -8957,20 +8801,17 @@
       <c r="L174" s="1">
         <v>1</v>
       </c>
-      <c r="M174" s="1">
-        <v>6.14</v>
+      <c r="M174" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P174" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>15</v>
       </c>
@@ -9007,20 +8848,17 @@
       <c r="L175" s="1">
         <v>0.5</v>
       </c>
-      <c r="M175" s="1">
-        <v>5.91</v>
+      <c r="M175" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P175" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>15</v>
       </c>
@@ -9057,20 +8895,17 @@
       <c r="L176" s="1">
         <v>0.9</v>
       </c>
-      <c r="M176" s="1">
-        <v>6.31</v>
+      <c r="M176" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P176" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>15</v>
       </c>
@@ -9107,20 +8942,17 @@
       <c r="L177" s="1">
         <v>0.5</v>
       </c>
-      <c r="M177" s="1">
-        <v>6.17</v>
+      <c r="M177" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P177" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>15</v>
       </c>
@@ -9157,20 +8989,17 @@
       <c r="L178" s="1">
         <v>0.85</v>
       </c>
-      <c r="M178" s="1">
-        <v>6.35</v>
+      <c r="M178" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P178" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>15</v>
       </c>
@@ -9207,20 +9036,17 @@
       <c r="L179" s="1">
         <v>0.95</v>
       </c>
-      <c r="M179" s="1">
-        <v>5.97</v>
+      <c r="M179" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O179" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P179" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>15</v>
       </c>
@@ -9257,20 +9083,17 @@
       <c r="L180" s="1">
         <v>1.25</v>
       </c>
-      <c r="M180" s="1">
-        <v>6.23</v>
+      <c r="M180" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P180" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>15</v>
       </c>
@@ -9307,20 +9130,17 @@
       <c r="L181" s="1">
         <v>0.4</v>
       </c>
-      <c r="M181" s="1">
-        <v>5.86</v>
+      <c r="M181" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O181" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P181" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>61</v>
       </c>
@@ -9357,20 +9177,17 @@
       <c r="L182" s="1">
         <v>1.4</v>
       </c>
-      <c r="M182" s="1">
-        <v>6.75</v>
+      <c r="M182" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O182" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P182" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>61</v>
       </c>
@@ -9407,20 +9224,17 @@
       <c r="L183" s="1">
         <v>1.2</v>
       </c>
-      <c r="M183" s="1">
-        <v>6.75</v>
+      <c r="M183" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P183" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>61</v>
       </c>
@@ -9457,20 +9271,17 @@
       <c r="L184" s="1">
         <v>1.35</v>
       </c>
-      <c r="M184" s="1">
-        <v>6.7</v>
+      <c r="M184" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P184" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>61</v>
       </c>
@@ -9507,20 +9318,17 @@
       <c r="L185" s="1">
         <v>1.2</v>
       </c>
-      <c r="M185" s="1">
-        <v>6.7</v>
+      <c r="M185" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O185" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P185" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>61</v>
       </c>
@@ -9557,20 +9365,17 @@
       <c r="L186" s="1">
         <v>1.85</v>
       </c>
-      <c r="M186" s="1">
-        <v>6.88</v>
+      <c r="M186" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P186" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>61</v>
       </c>
@@ -9607,20 +9412,17 @@
       <c r="L187" s="1">
         <v>1.55</v>
       </c>
-      <c r="M187" s="1">
-        <v>6.85</v>
+      <c r="M187" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P187" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>61</v>
       </c>
@@ -9657,20 +9459,17 @@
       <c r="L188" s="1">
         <v>1.55</v>
       </c>
-      <c r="M188" s="1">
-        <v>6.68</v>
+      <c r="M188" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O188" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P188" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>61</v>
       </c>
@@ -9707,20 +9506,17 @@
       <c r="L189" s="1">
         <v>1.65</v>
       </c>
-      <c r="M189" s="1">
-        <v>6.57</v>
+      <c r="M189" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P189" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>61</v>
       </c>
@@ -9757,20 +9553,17 @@
       <c r="L190" s="1">
         <v>2.4500000000000002</v>
       </c>
-      <c r="M190" s="1">
-        <v>7.07</v>
+      <c r="M190" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P190" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>61</v>
       </c>
@@ -9807,20 +9600,17 @@
       <c r="L191" s="1">
         <v>2.35</v>
       </c>
-      <c r="M191" s="1">
-        <v>7.05</v>
+      <c r="M191" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O191" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P191" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>61</v>
       </c>
@@ -9857,20 +9647,17 @@
       <c r="L192" s="1">
         <v>1.6</v>
       </c>
-      <c r="M192" s="1">
-        <v>6.68</v>
+      <c r="M192" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O192" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P192" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>61</v>
       </c>
@@ -9907,20 +9694,17 @@
       <c r="L193" s="1">
         <v>1.55</v>
       </c>
-      <c r="M193" s="1">
-        <v>6.75</v>
+      <c r="M193" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O193" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P193" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>61</v>
       </c>
@@ -9957,20 +9741,17 @@
       <c r="L194" s="1">
         <v>8</v>
       </c>
-      <c r="M194" s="1">
-        <v>6.87</v>
+      <c r="M194" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N194" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O194" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P194" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>61</v>
       </c>
@@ -10007,20 +9788,17 @@
       <c r="L195" s="1">
         <v>6.5</v>
       </c>
-      <c r="M195" s="1">
-        <v>6.85</v>
+      <c r="M195" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N195" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O195" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P195" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>61</v>
       </c>
@@ -10057,20 +9835,17 @@
       <c r="L196" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="M196" s="1">
-        <v>6.75</v>
+      <c r="M196" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N196" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O196" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P196" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>61</v>
       </c>
@@ -10107,20 +9882,17 @@
       <c r="L197" s="1">
         <v>3.15</v>
       </c>
-      <c r="M197" s="1">
-        <v>6.76</v>
+      <c r="M197" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N197" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O197" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P197" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>61</v>
       </c>
@@ -10157,20 +9929,17 @@
       <c r="L198" s="1">
         <v>7.45</v>
       </c>
-      <c r="M198" s="1">
-        <v>6.98</v>
+      <c r="M198" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N198" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O198" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P198" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>61</v>
       </c>
@@ -10207,20 +9976,17 @@
       <c r="L199" s="1">
         <v>7.25</v>
       </c>
-      <c r="M199" s="1">
-        <v>7.05</v>
+      <c r="M199" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N199" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O199" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P199" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>61</v>
       </c>
@@ -10257,20 +10023,17 @@
       <c r="L200" s="1">
         <v>12.1</v>
       </c>
-      <c r="M200" s="1">
-        <v>6.71</v>
+      <c r="M200" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O200" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P200" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>61</v>
       </c>
@@ -10307,20 +10070,17 @@
       <c r="L201" s="1">
         <v>11.4</v>
       </c>
-      <c r="M201" s="1">
-        <v>6.79</v>
+      <c r="M201" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O201" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P201" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>61</v>
       </c>
@@ -10357,20 +10117,17 @@
       <c r="L202" s="1">
         <v>3</v>
       </c>
-      <c r="M202" s="1">
-        <v>6.87</v>
+      <c r="M202" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N202" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O202" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P202" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>61</v>
       </c>
@@ -10407,20 +10164,17 @@
       <c r="L203" s="1">
         <v>2.5</v>
       </c>
-      <c r="M203" s="1">
-        <v>6.89</v>
+      <c r="M203" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N203" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O203" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P203" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>61</v>
       </c>
@@ -10457,20 +10211,17 @@
       <c r="L204" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="M204" s="1">
-        <v>6.85</v>
+      <c r="M204" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P204" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>61</v>
       </c>
@@ -10507,20 +10258,17 @@
       <c r="L205" s="1">
         <v>4.1500000000000004</v>
       </c>
-      <c r="M205" s="1">
-        <v>6.87</v>
+      <c r="M205" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N205" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O205" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P205" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>61</v>
       </c>
@@ -10557,20 +10305,17 @@
       <c r="L206" s="1">
         <v>1.5</v>
       </c>
-      <c r="M206" s="1">
-        <v>6.92</v>
+      <c r="M206" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N206" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O206" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P206" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>61</v>
       </c>
@@ -10607,20 +10352,17 @@
       <c r="L207" s="1">
         <v>1.6</v>
       </c>
-      <c r="M207" s="1">
-        <v>6.87</v>
+      <c r="M207" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N207" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O207" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P207" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>61</v>
       </c>
@@ -10657,20 +10399,17 @@
       <c r="L208" s="1">
         <v>4</v>
       </c>
-      <c r="M208" s="1">
-        <v>6.68</v>
+      <c r="M208" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O208" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P208" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>61</v>
       </c>
@@ -10707,20 +10446,17 @@
       <c r="L209" s="1">
         <v>4.05</v>
       </c>
-      <c r="M209" s="1">
-        <v>6.71</v>
+      <c r="M209" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N209" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O209" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P209" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>61</v>
       </c>
@@ -10757,20 +10493,17 @@
       <c r="L210" s="1">
         <v>1.55</v>
       </c>
-      <c r="M210" s="1">
-        <v>6.55</v>
+      <c r="M210" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O210" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P210" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>61</v>
       </c>
@@ -10807,20 +10540,17 @@
       <c r="L211" s="1">
         <v>1.5</v>
       </c>
-      <c r="M211" s="1">
-        <v>6.68</v>
+      <c r="M211" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O211" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P211" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>61</v>
       </c>
@@ -10857,20 +10587,17 @@
       <c r="L212" s="1">
         <v>1.65</v>
       </c>
-      <c r="M212" s="1">
-        <v>6.75</v>
+      <c r="M212" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O212" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P212" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>61</v>
       </c>
@@ -10907,20 +10634,17 @@
       <c r="L213" s="1">
         <v>1.6</v>
       </c>
-      <c r="M213" s="1">
-        <v>6.75</v>
+      <c r="M213" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O213" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P213" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>61</v>
       </c>
@@ -10957,20 +10681,17 @@
       <c r="L214" s="1">
         <v>3.95</v>
       </c>
-      <c r="M214" s="1">
-        <v>6.79</v>
+      <c r="M214" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O214" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P214" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>61</v>
       </c>
@@ -11007,20 +10728,17 @@
       <c r="L215" s="1">
         <v>4.3499999999999996</v>
       </c>
-      <c r="M215" s="1">
-        <v>6.64</v>
+      <c r="M215" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O215" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P215" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>61</v>
       </c>
@@ -11057,20 +10775,17 @@
       <c r="L216" s="1">
         <v>1.4</v>
       </c>
-      <c r="M216" s="1">
-        <v>6.65</v>
+      <c r="M216" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O216" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P216" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>61</v>
       </c>
@@ -11107,20 +10822,17 @@
       <c r="L217" s="1">
         <v>1.3</v>
       </c>
-      <c r="M217" s="1">
-        <v>6.55</v>
+      <c r="M217" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O217" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P217" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>61</v>
       </c>
@@ -11157,20 +10869,17 @@
       <c r="L218" s="1">
         <v>1.7</v>
       </c>
-      <c r="M218" s="1">
-        <v>6.46</v>
+      <c r="M218" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O218" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P218" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>61</v>
       </c>
@@ -11207,20 +10916,17 @@
       <c r="L219" s="1">
         <v>1.4</v>
       </c>
-      <c r="M219" s="1">
-        <v>6.65</v>
+      <c r="M219" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N219" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O219" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P219" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>61</v>
       </c>
@@ -11257,20 +10963,17 @@
       <c r="L220" s="1">
         <v>3.7</v>
       </c>
-      <c r="M220" s="1">
-        <v>6.61</v>
+      <c r="M220" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O220" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P220" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>61</v>
       </c>
@@ -11307,20 +11010,17 @@
       <c r="L221" s="1">
         <v>2.7</v>
       </c>
-      <c r="M221" s="1">
-        <v>6.77</v>
+      <c r="M221" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O221" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P221" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>61</v>
       </c>
@@ -11357,20 +11057,17 @@
       <c r="L222" s="1">
         <v>1.8</v>
       </c>
-      <c r="M222" s="1">
-        <v>6.64</v>
+      <c r="M222" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O222" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P222" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>61</v>
       </c>
@@ -11407,20 +11104,17 @@
       <c r="L223" s="1">
         <v>1.25</v>
       </c>
-      <c r="M223" s="1">
-        <v>6.62</v>
+      <c r="M223" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O223" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P223" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>61</v>
       </c>
@@ -11457,20 +11151,17 @@
       <c r="L224" s="1">
         <v>1.85</v>
       </c>
-      <c r="M224" s="1">
-        <v>6.5</v>
+      <c r="M224" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O224" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P224" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>61</v>
       </c>
@@ -11507,20 +11198,17 @@
       <c r="L225" s="1">
         <v>1.75</v>
       </c>
-      <c r="M225" s="1">
-        <v>6.55</v>
+      <c r="M225" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O225" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P225" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>61</v>
       </c>
@@ -11557,20 +11245,17 @@
       <c r="L226" s="1">
         <v>4.05</v>
       </c>
-      <c r="M226" s="1">
-        <v>6.74</v>
+      <c r="M226" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O226" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P226" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>61</v>
       </c>
@@ -11607,20 +11292,17 @@
       <c r="L227" s="1">
         <v>4</v>
       </c>
-      <c r="M227" s="1">
-        <v>6.7</v>
+      <c r="M227" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O227" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P227" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>61</v>
       </c>
@@ -11657,20 +11339,17 @@
       <c r="L228" s="1">
         <v>1.2</v>
       </c>
-      <c r="M228" s="1">
-        <v>6.72</v>
+      <c r="M228" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O228" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P228" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>61</v>
       </c>
@@ -11707,20 +11386,17 @@
       <c r="L229" s="1">
         <v>1.25</v>
       </c>
-      <c r="M229" s="1">
-        <v>6.76</v>
+      <c r="M229" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O229" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P229" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>61</v>
       </c>
@@ -11757,20 +11433,17 @@
       <c r="L230" s="1">
         <v>9.9499999999999993</v>
       </c>
-      <c r="M230" s="1">
-        <v>6.9</v>
+      <c r="M230" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O230" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P230" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>61</v>
       </c>
@@ -11807,20 +11480,17 @@
       <c r="L231" s="1">
         <v>10.8</v>
       </c>
-      <c r="M231" s="1">
-        <v>6.8</v>
+      <c r="M231" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O231" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P231" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>61</v>
       </c>
@@ -11857,20 +11527,17 @@
       <c r="L232" s="1">
         <v>7.2</v>
       </c>
-      <c r="M232" s="1">
-        <v>6.83</v>
+      <c r="M232" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O232" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P232" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>61</v>
       </c>
@@ -11907,20 +11574,17 @@
       <c r="L233" s="1">
         <v>7.35</v>
       </c>
-      <c r="M233" s="1">
-        <v>6.86</v>
+      <c r="M233" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O233" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P233" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>61</v>
       </c>
@@ -11957,20 +11621,17 @@
       <c r="L234" s="1">
         <v>1.55</v>
       </c>
-      <c r="M234" s="1">
-        <v>6.65</v>
+      <c r="M234" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O234" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P234" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>61</v>
       </c>
@@ -12007,20 +11668,17 @@
       <c r="L235" s="1">
         <v>1.35</v>
       </c>
-      <c r="M235" s="1">
-        <v>6.66</v>
+      <c r="M235" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O235" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P235" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>61</v>
       </c>
@@ -12057,20 +11715,17 @@
       <c r="L236" s="1">
         <v>8</v>
       </c>
-      <c r="M236" s="1">
-        <v>6.85</v>
+      <c r="M236" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O236" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P236" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>61</v>
       </c>
@@ -12107,20 +11762,17 @@
       <c r="L237" s="1">
         <v>6.7</v>
       </c>
-      <c r="M237" s="1">
-        <v>6.74</v>
+      <c r="M237" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O237" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P237" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>61</v>
       </c>
@@ -12157,20 +11809,17 @@
       <c r="L238" s="1">
         <v>15.6</v>
       </c>
-      <c r="M238" s="1">
-        <v>6.76</v>
+      <c r="M238" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O238" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P238" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>61</v>
       </c>
@@ -12207,20 +11856,17 @@
       <c r="L239" s="1">
         <v>15.8</v>
       </c>
-      <c r="M239" s="1">
-        <v>6.78</v>
+      <c r="M239" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O239" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P239" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>61</v>
       </c>
@@ -12257,20 +11903,17 @@
       <c r="L240" s="1">
         <v>4</v>
       </c>
-      <c r="M240" s="1">
-        <v>6.67</v>
+      <c r="M240" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O240" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P240" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>61</v>
       </c>
@@ -12307,16 +11950,13 @@
       <c r="L241" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M241" s="1">
-        <v>6.7</v>
+      <c r="M241" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O241" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P241" s="1" t="s">
         <v>34</v>
       </c>
     </row>

--- a/SoilDataComplete.xlsx
+++ b/SoilDataComplete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdph224\Documents\GitHub\Rhizosphere-sequencing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE6AA26-E768-4FF7-AE9E-A547B6650897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA0B523-9AB9-4D2F-9474-128D5BE63383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="R140" sqref="R140"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122:L241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6333,29 +6333,29 @@
       <c r="D122" s="1">
         <v>3</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122">
         <v>5.18</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F122">
         <v>6.05</v>
       </c>
-      <c r="G122" s="1">
+      <c r="G122">
         <v>6.43</v>
       </c>
-      <c r="H122" s="1">
-        <v>229</v>
-      </c>
-      <c r="I122" s="1">
-        <v>89.5</v>
-      </c>
-      <c r="J122" s="1">
-        <v>2434</v>
-      </c>
-      <c r="K122" s="1">
-        <v>199</v>
-      </c>
-      <c r="L122" s="1">
-        <v>1.4</v>
+      <c r="H122">
+        <v>513</v>
+      </c>
+      <c r="I122">
+        <v>201</v>
+      </c>
+      <c r="J122">
+        <v>5453</v>
+      </c>
+      <c r="K122">
+        <v>446</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>18</v>
@@ -6380,29 +6380,29 @@
       <c r="D123" s="1">
         <v>3</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123">
         <v>5</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123">
         <v>5.89</v>
       </c>
-      <c r="G123" s="1">
+      <c r="G123">
         <v>6.46</v>
       </c>
-      <c r="H123" s="1">
-        <v>205</v>
-      </c>
-      <c r="I123" s="1">
-        <v>60.5</v>
-      </c>
-      <c r="J123" s="1">
-        <v>2312</v>
-      </c>
-      <c r="K123" s="1">
-        <v>151</v>
-      </c>
-      <c r="L123" s="1">
-        <v>1.4</v>
+      <c r="H123">
+        <v>460</v>
+      </c>
+      <c r="I123">
+        <v>136</v>
+      </c>
+      <c r="J123">
+        <v>5179</v>
+      </c>
+      <c r="K123">
+        <v>339</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>18</v>
@@ -6427,29 +6427,29 @@
       <c r="D124" s="1">
         <v>3</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124">
         <v>5.55</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124">
         <v>6.39</v>
       </c>
-      <c r="G124" s="1">
+      <c r="G124">
         <v>6.66</v>
       </c>
-      <c r="H124" s="1">
-        <v>218</v>
-      </c>
-      <c r="I124" s="1">
-        <v>96</v>
-      </c>
-      <c r="J124" s="1">
-        <v>2539.5</v>
-      </c>
-      <c r="K124" s="1">
-        <v>206</v>
-      </c>
-      <c r="L124" s="1">
-        <v>1.2</v>
+      <c r="H124">
+        <v>489</v>
+      </c>
+      <c r="I124">
+        <v>216</v>
+      </c>
+      <c r="J124">
+        <v>5689</v>
+      </c>
+      <c r="K124">
+        <v>462</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>23</v>
@@ -6474,29 +6474,29 @@
       <c r="D125" s="1">
         <v>3</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125">
         <v>5.04</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125">
         <v>5.93</v>
       </c>
-      <c r="G125" s="1">
+      <c r="G125">
         <v>6.51</v>
       </c>
-      <c r="H125" s="1">
-        <v>191</v>
-      </c>
-      <c r="I125" s="1">
-        <v>60</v>
-      </c>
-      <c r="J125" s="1">
-        <v>2169</v>
-      </c>
-      <c r="K125" s="1">
-        <v>151.5</v>
-      </c>
-      <c r="L125" s="1">
-        <v>0.7</v>
+      <c r="H125">
+        <v>428</v>
+      </c>
+      <c r="I125">
+        <v>135</v>
+      </c>
+      <c r="J125">
+        <v>4859</v>
+      </c>
+      <c r="K125">
+        <v>340</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>23</v>
@@ -6521,29 +6521,29 @@
       <c r="D126" s="1">
         <v>3</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126">
         <v>5.42</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126">
         <v>6.27</v>
       </c>
-      <c r="G126" s="1">
+      <c r="G126">
         <v>6.61</v>
       </c>
-      <c r="H126" s="1">
-        <v>194.5</v>
-      </c>
-      <c r="I126" s="1">
-        <v>80.5</v>
-      </c>
-      <c r="J126" s="1">
-        <v>2695.5</v>
-      </c>
-      <c r="K126" s="1">
-        <v>209</v>
-      </c>
-      <c r="L126" s="1">
-        <v>1.1499999999999999</v>
+      <c r="H126">
+        <v>436</v>
+      </c>
+      <c r="I126">
+        <v>181</v>
+      </c>
+      <c r="J126">
+        <v>6038</v>
+      </c>
+      <c r="K126">
+        <v>469</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
       </c>
       <c r="M126" s="1" t="s">
         <v>23</v>
@@ -6568,29 +6568,29 @@
       <c r="D127" s="1">
         <v>3</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127">
         <v>4.88</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F127">
         <v>5.78</v>
       </c>
-      <c r="G127" s="1">
+      <c r="G127">
         <v>6.48</v>
       </c>
-      <c r="H127" s="1">
-        <v>174</v>
-      </c>
-      <c r="I127" s="1">
-        <v>57.5</v>
-      </c>
-      <c r="J127" s="1">
-        <v>2140.5</v>
-      </c>
-      <c r="K127" s="1">
-        <v>146</v>
-      </c>
-      <c r="L127" s="1">
-        <v>0.45</v>
+      <c r="H127">
+        <v>390</v>
+      </c>
+      <c r="I127">
+        <v>129</v>
+      </c>
+      <c r="J127">
+        <v>4795</v>
+      </c>
+      <c r="K127">
+        <v>328</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>23</v>
@@ -6615,29 +6615,29 @@
       <c r="D128" s="1">
         <v>3</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128">
         <v>5.12</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F128">
         <v>6</v>
       </c>
-      <c r="G128" s="1">
+      <c r="G128">
         <v>6.47</v>
       </c>
-      <c r="H128" s="1">
-        <v>143</v>
-      </c>
-      <c r="I128" s="1">
-        <v>71</v>
-      </c>
-      <c r="J128" s="1">
-        <v>2078</v>
-      </c>
-      <c r="K128" s="1">
-        <v>179.5</v>
-      </c>
-      <c r="L128" s="1">
-        <v>0.7</v>
+      <c r="H128">
+        <v>321</v>
+      </c>
+      <c r="I128">
+        <v>160</v>
+      </c>
+      <c r="J128">
+        <v>4655</v>
+      </c>
+      <c r="K128">
+        <v>403</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>30</v>
@@ -6662,29 +6662,29 @@
       <c r="D129" s="1">
         <v>3</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129">
         <v>4.8899999999999997</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F129">
         <v>5.79</v>
       </c>
-      <c r="G129" s="1">
+      <c r="G129">
         <v>6.49</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H129">
+        <v>289</v>
+      </c>
+      <c r="I129">
         <v>129</v>
       </c>
-      <c r="I129" s="1">
-        <v>57.5</v>
-      </c>
-      <c r="J129" s="1">
-        <v>2050</v>
-      </c>
-      <c r="K129" s="1">
-        <v>140</v>
-      </c>
-      <c r="L129" s="1">
-        <v>0.4</v>
+      <c r="J129">
+        <v>4592</v>
+      </c>
+      <c r="K129">
+        <v>314</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>30</v>
@@ -6709,29 +6709,29 @@
       <c r="D130" s="1">
         <v>3</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130">
         <v>4.67</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F130">
         <v>5.59</v>
       </c>
-      <c r="G130" s="1">
+      <c r="G130">
         <v>6.26</v>
       </c>
-      <c r="H130" s="1">
-        <v>122.5</v>
-      </c>
-      <c r="I130" s="1">
-        <v>70</v>
-      </c>
-      <c r="J130" s="1">
-        <v>1739</v>
-      </c>
-      <c r="K130" s="1">
-        <v>171</v>
-      </c>
-      <c r="L130" s="1">
-        <v>0.55000000000000004</v>
+      <c r="H130">
+        <v>275</v>
+      </c>
+      <c r="I130">
+        <v>157</v>
+      </c>
+      <c r="J130">
+        <v>3896</v>
+      </c>
+      <c r="K130">
+        <v>384</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>30</v>
@@ -6756,29 +6756,29 @@
       <c r="D131" s="1">
         <v>3</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131">
         <v>4.76</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F131">
         <v>5.67</v>
       </c>
-      <c r="G131" s="1">
+      <c r="G131">
         <v>6.4</v>
       </c>
-      <c r="H131" s="1">
-        <v>104.5</v>
-      </c>
-      <c r="I131" s="1">
-        <v>54</v>
-      </c>
-      <c r="J131" s="1">
-        <v>1879.5</v>
-      </c>
-      <c r="K131" s="1">
-        <v>124.5</v>
-      </c>
-      <c r="L131" s="1">
-        <v>0.35</v>
+      <c r="H131">
+        <v>235</v>
+      </c>
+      <c r="I131">
+        <v>121</v>
+      </c>
+      <c r="J131">
+        <v>4211</v>
+      </c>
+      <c r="K131">
+        <v>279</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>30</v>
@@ -6803,29 +6803,29 @@
       <c r="D132" s="1">
         <v>3</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132">
         <v>5.08</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F132">
         <v>5.96</v>
       </c>
-      <c r="G132" s="1">
+      <c r="G132">
         <v>6.46</v>
       </c>
-      <c r="H132" s="1">
-        <v>124</v>
-      </c>
-      <c r="I132" s="1">
-        <v>71</v>
-      </c>
-      <c r="J132" s="1">
-        <v>2123</v>
-      </c>
-      <c r="K132" s="1">
-        <v>180.5</v>
-      </c>
-      <c r="L132" s="1">
-        <v>0.8</v>
+      <c r="H132">
+        <v>278</v>
+      </c>
+      <c r="I132">
+        <v>160</v>
+      </c>
+      <c r="J132">
+        <v>4756</v>
+      </c>
+      <c r="K132">
+        <v>405</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>18</v>
@@ -6850,29 +6850,29 @@
       <c r="D133" s="1">
         <v>3</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133">
         <v>4.6900000000000004</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133">
         <v>5.61</v>
       </c>
-      <c r="G133" s="1">
+      <c r="G133">
         <v>6.45</v>
       </c>
-      <c r="H133" s="1">
-        <v>109</v>
-      </c>
-      <c r="I133" s="1">
-        <v>60</v>
-      </c>
-      <c r="J133" s="1">
-        <v>2013</v>
-      </c>
-      <c r="K133" s="1">
-        <v>135.5</v>
-      </c>
-      <c r="L133" s="1">
-        <v>0.85</v>
+      <c r="H133">
+        <v>245</v>
+      </c>
+      <c r="I133">
+        <v>135</v>
+      </c>
+      <c r="J133">
+        <v>4510</v>
+      </c>
+      <c r="K133">
+        <v>304</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>18</v>
@@ -6897,29 +6897,29 @@
       <c r="D134" s="1">
         <v>3</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134">
         <v>5.16</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F134">
         <v>6.04</v>
       </c>
-      <c r="G134" s="1">
+      <c r="G134">
         <v>6.49</v>
       </c>
-      <c r="H134" s="1">
-        <v>187.5</v>
-      </c>
-      <c r="I134" s="1">
-        <v>91.5</v>
-      </c>
-      <c r="J134" s="1">
-        <v>2426.5</v>
-      </c>
-      <c r="K134" s="1">
-        <v>199</v>
-      </c>
-      <c r="L134" s="1">
-        <v>1</v>
+      <c r="H134">
+        <v>420</v>
+      </c>
+      <c r="I134">
+        <v>205</v>
+      </c>
+      <c r="J134">
+        <v>5436</v>
+      </c>
+      <c r="K134">
+        <v>446</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>30</v>
@@ -6944,29 +6944,29 @@
       <c r="D135" s="1">
         <v>3</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135">
         <v>4.67</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135">
         <v>5.59</v>
       </c>
-      <c r="G135" s="1">
+      <c r="G135">
         <v>6.36</v>
       </c>
-      <c r="H135" s="1">
-        <v>170</v>
-      </c>
-      <c r="I135" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="J135" s="1">
-        <v>2081</v>
-      </c>
-      <c r="K135" s="1">
-        <v>125</v>
-      </c>
-      <c r="L135" s="1">
-        <v>0.6</v>
+      <c r="H135">
+        <v>281</v>
+      </c>
+      <c r="I135">
+        <v>140</v>
+      </c>
+      <c r="J135">
+        <v>4662</v>
+      </c>
+      <c r="K135">
+        <v>280</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
       </c>
       <c r="M135" s="1" t="s">
         <v>30</v>
@@ -6991,29 +6991,29 @@
       <c r="D136" s="1">
         <v>3</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136">
         <v>5.08</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136">
         <v>5.96</v>
       </c>
-      <c r="G136" s="1">
+      <c r="G136">
         <v>6.46</v>
       </c>
-      <c r="H136" s="1">
-        <v>198.5</v>
-      </c>
-      <c r="I136" s="1">
-        <v>94.5</v>
-      </c>
-      <c r="J136" s="1">
-        <v>2331.5</v>
-      </c>
-      <c r="K136" s="1">
-        <v>210.5</v>
-      </c>
-      <c r="L136" s="1">
-        <v>1.1000000000000001</v>
+      <c r="H136">
+        <v>445</v>
+      </c>
+      <c r="I136">
+        <v>212</v>
+      </c>
+      <c r="J136">
+        <v>5223</v>
+      </c>
+      <c r="K136">
+        <v>472</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
       </c>
       <c r="M136" s="1" t="s">
         <v>18</v>
@@ -7038,29 +7038,29 @@
       <c r="D137" s="1">
         <v>3</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137">
         <v>4.68</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137">
         <v>5.6</v>
       </c>
-      <c r="G137" s="1">
+      <c r="G137">
         <v>6.37</v>
       </c>
-      <c r="H137" s="1">
-        <v>181.5</v>
-      </c>
-      <c r="I137" s="1">
-        <v>61</v>
-      </c>
-      <c r="J137" s="1">
-        <v>2078.5</v>
-      </c>
-      <c r="K137" s="1">
-        <v>135</v>
-      </c>
-      <c r="L137" s="1">
-        <v>0.55000000000000004</v>
+      <c r="H137">
+        <v>407</v>
+      </c>
+      <c r="I137">
+        <v>137</v>
+      </c>
+      <c r="J137">
+        <v>4656</v>
+      </c>
+      <c r="K137">
+        <v>303</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
       </c>
       <c r="M137" s="1" t="s">
         <v>18</v>
@@ -7085,29 +7085,29 @@
       <c r="D138" s="1">
         <v>3</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138">
         <v>5.34</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F138">
         <v>6.2</v>
       </c>
-      <c r="G138" s="1">
+      <c r="G138">
         <v>6.54</v>
       </c>
-      <c r="H138" s="1">
-        <v>206</v>
-      </c>
-      <c r="I138" s="1">
-        <v>76.5</v>
-      </c>
-      <c r="J138" s="1">
-        <v>2392</v>
-      </c>
-      <c r="K138" s="1">
-        <v>192</v>
-      </c>
-      <c r="L138" s="1">
-        <v>0.7</v>
+      <c r="H138">
+        <v>462</v>
+      </c>
+      <c r="I138">
+        <v>172</v>
+      </c>
+      <c r="J138">
+        <v>5359</v>
+      </c>
+      <c r="K138">
+        <v>431</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
       </c>
       <c r="M138" s="1" t="s">
         <v>18</v>
@@ -7132,29 +7132,29 @@
       <c r="D139" s="1">
         <v>3</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139">
         <v>4.87</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F139">
         <v>5.77</v>
       </c>
-      <c r="G139" s="1">
+      <c r="G139">
         <v>6.46</v>
       </c>
-      <c r="H139" s="1">
-        <v>199</v>
-      </c>
-      <c r="I139" s="1">
-        <v>60</v>
-      </c>
-      <c r="J139" s="1">
-        <v>2183.5</v>
-      </c>
-      <c r="K139" s="1">
-        <v>151</v>
-      </c>
-      <c r="L139" s="1">
-        <v>0.5</v>
+      <c r="H139">
+        <v>446</v>
+      </c>
+      <c r="I139">
+        <v>135</v>
+      </c>
+      <c r="J139">
+        <v>4892</v>
+      </c>
+      <c r="K139">
+        <v>339</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
       </c>
       <c r="M139" s="1" t="s">
         <v>18</v>
@@ -7179,29 +7179,29 @@
       <c r="D140" s="1">
         <v>3</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140">
         <v>5.03</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F140">
         <v>5.92</v>
       </c>
-      <c r="G140" s="1">
+      <c r="G140">
         <v>6.47</v>
       </c>
-      <c r="H140" s="1">
-        <v>191.5</v>
-      </c>
-      <c r="I140" s="1">
-        <v>84</v>
-      </c>
-      <c r="J140" s="1">
-        <v>1991.5</v>
-      </c>
-      <c r="K140" s="1">
-        <v>183</v>
-      </c>
-      <c r="L140" s="1">
-        <v>0.6</v>
+      <c r="H140">
+        <v>429</v>
+      </c>
+      <c r="I140">
+        <v>189</v>
+      </c>
+      <c r="J140">
+        <v>4461</v>
+      </c>
+      <c r="K140">
+        <v>410</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
       </c>
       <c r="M140" s="1" t="s">
         <v>23</v>
@@ -7226,29 +7226,29 @@
       <c r="D141" s="1">
         <v>3</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F141">
         <v>5.8</v>
       </c>
-      <c r="G141" s="1">
+      <c r="G141">
         <v>6.49</v>
       </c>
-      <c r="H141" s="1">
-        <v>188</v>
-      </c>
-      <c r="I141" s="1">
-        <v>58</v>
-      </c>
-      <c r="J141" s="1">
-        <v>1944</v>
-      </c>
-      <c r="K141" s="1">
-        <v>124</v>
-      </c>
-      <c r="L141" s="1">
-        <v>1</v>
+      <c r="H141">
+        <v>422</v>
+      </c>
+      <c r="I141">
+        <v>130</v>
+      </c>
+      <c r="J141">
+        <v>4355</v>
+      </c>
+      <c r="K141">
+        <v>278</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
       </c>
       <c r="M141" s="1" t="s">
         <v>23</v>
@@ -7273,29 +7273,29 @@
       <c r="D142" s="1">
         <v>3</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142">
         <v>4.7300000000000004</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F142">
         <v>5.64</v>
       </c>
-      <c r="G142" s="1">
+      <c r="G142">
         <v>6.34</v>
       </c>
-      <c r="H142" s="1">
-        <v>191.5</v>
-      </c>
-      <c r="I142" s="1">
-        <v>74</v>
-      </c>
-      <c r="J142" s="1">
-        <v>1881.5</v>
-      </c>
-      <c r="K142" s="1">
-        <v>173.5</v>
-      </c>
-      <c r="L142" s="1">
-        <v>1.2</v>
+      <c r="H142">
+        <v>429</v>
+      </c>
+      <c r="I142">
+        <v>166</v>
+      </c>
+      <c r="J142">
+        <v>4215</v>
+      </c>
+      <c r="K142">
+        <v>389</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
       </c>
       <c r="M142" s="1" t="s">
         <v>30</v>
@@ -7320,29 +7320,29 @@
       <c r="D143" s="1">
         <v>3</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143">
         <v>4.8499999999999996</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143">
         <v>5.75</v>
       </c>
-      <c r="G143" s="1">
+      <c r="G143">
         <v>6.41</v>
       </c>
-      <c r="H143" s="1">
-        <v>196</v>
-      </c>
-      <c r="I143" s="1">
-        <v>60</v>
-      </c>
-      <c r="J143" s="1">
-        <v>1965</v>
-      </c>
-      <c r="K143" s="1">
-        <v>124.5</v>
-      </c>
-      <c r="L143" s="1">
-        <v>0.25</v>
+      <c r="H143">
+        <v>440</v>
+      </c>
+      <c r="I143">
+        <v>135</v>
+      </c>
+      <c r="J143">
+        <v>4402</v>
+      </c>
+      <c r="K143">
+        <v>279</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>30</v>
@@ -7367,29 +7367,29 @@
       <c r="D144" s="1">
         <v>3</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144">
         <v>5.12</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144">
         <v>6</v>
       </c>
-      <c r="G144" s="1">
+      <c r="G144">
         <v>6.45</v>
       </c>
-      <c r="H144" s="1">
-        <v>225</v>
-      </c>
-      <c r="I144" s="1">
-        <v>84</v>
-      </c>
-      <c r="J144" s="1">
-        <v>2469.5</v>
-      </c>
-      <c r="K144" s="1">
-        <v>216</v>
-      </c>
-      <c r="L144" s="1">
-        <v>0.65</v>
+      <c r="H144">
+        <v>504</v>
+      </c>
+      <c r="I144">
+        <v>189</v>
+      </c>
+      <c r="J144">
+        <v>5532</v>
+      </c>
+      <c r="K144">
+        <v>484</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>23</v>
@@ -7414,29 +7414,29 @@
       <c r="D145" s="1">
         <v>3</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145">
         <v>4.88</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145">
         <v>5.78</v>
       </c>
-      <c r="G145" s="1">
+      <c r="G145">
         <v>6.36</v>
       </c>
-      <c r="H145" s="1">
-        <v>210</v>
-      </c>
-      <c r="I145" s="1">
-        <v>65.5</v>
-      </c>
-      <c r="J145" s="1">
-        <v>2361</v>
-      </c>
-      <c r="K145" s="1">
-        <v>157</v>
-      </c>
-      <c r="L145" s="1">
-        <v>0.4</v>
+      <c r="H145">
+        <v>471</v>
+      </c>
+      <c r="I145">
+        <v>147</v>
+      </c>
+      <c r="J145">
+        <v>5289</v>
+      </c>
+      <c r="K145">
+        <v>352</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
       </c>
       <c r="M145" s="1" t="s">
         <v>23</v>
@@ -7461,29 +7461,29 @@
       <c r="D146" s="1">
         <v>3</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146">
         <v>4.99</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F146">
         <v>5.88</v>
       </c>
-      <c r="G146" s="1">
+      <c r="G146">
         <v>6.49</v>
       </c>
-      <c r="H146" s="1">
-        <v>212.5</v>
-      </c>
-      <c r="I146" s="1">
-        <v>102.5</v>
-      </c>
-      <c r="J146" s="1">
-        <v>1804</v>
-      </c>
-      <c r="K146" s="1">
-        <v>130.5</v>
-      </c>
-      <c r="L146" s="1">
-        <v>2.0499999999999998</v>
+      <c r="H146">
+        <v>476</v>
+      </c>
+      <c r="I146">
+        <v>230</v>
+      </c>
+      <c r="J146">
+        <v>4041</v>
+      </c>
+      <c r="K146">
+        <v>293</v>
+      </c>
+      <c r="L146">
+        <v>5</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>23</v>
@@ -7508,29 +7508,29 @@
       <c r="D147" s="1">
         <v>3</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147">
         <v>4.8600000000000003</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147">
         <v>5.76</v>
       </c>
-      <c r="G147" s="1">
+      <c r="G147">
         <v>6.43</v>
       </c>
-      <c r="H147" s="1">
-        <v>197</v>
-      </c>
-      <c r="I147" s="1">
-        <v>68</v>
-      </c>
-      <c r="J147" s="1">
-        <v>1696</v>
-      </c>
-      <c r="K147" s="1">
-        <v>108</v>
-      </c>
-      <c r="L147" s="1">
-        <v>0.95</v>
+      <c r="H147">
+        <v>442</v>
+      </c>
+      <c r="I147">
+        <v>153</v>
+      </c>
+      <c r="J147">
+        <v>3800</v>
+      </c>
+      <c r="K147">
+        <v>242</v>
+      </c>
+      <c r="L147">
+        <v>3</v>
       </c>
       <c r="M147" s="1" t="s">
         <v>23</v>
@@ -7555,29 +7555,29 @@
       <c r="D148" s="1">
         <v>3</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148">
         <v>5.23</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F148">
         <v>6.1</v>
       </c>
-      <c r="G148" s="1">
+      <c r="G148">
         <v>6.65</v>
       </c>
-      <c r="H148" s="1">
-        <v>199.5</v>
-      </c>
-      <c r="I148" s="1">
-        <v>83.5</v>
-      </c>
-      <c r="J148" s="1">
-        <v>1996.5</v>
-      </c>
-      <c r="K148" s="1">
-        <v>196</v>
-      </c>
-      <c r="L148" s="1">
-        <v>1.1000000000000001</v>
+      <c r="H148">
+        <v>447</v>
+      </c>
+      <c r="I148">
+        <v>188</v>
+      </c>
+      <c r="J148">
+        <v>4473</v>
+      </c>
+      <c r="K148">
+        <v>440</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>18</v>
@@ -7602,29 +7602,29 @@
       <c r="D149" s="1">
         <v>3</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149">
         <v>4.78</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F149">
         <v>5.69</v>
       </c>
-      <c r="G149" s="1">
+      <c r="G149">
         <v>6.39</v>
       </c>
-      <c r="H149" s="1">
-        <v>177.5</v>
-      </c>
-      <c r="I149" s="1">
-        <v>52</v>
-      </c>
-      <c r="J149" s="1">
-        <v>1527</v>
-      </c>
-      <c r="K149" s="1">
-        <v>121</v>
-      </c>
-      <c r="L149" s="1">
-        <v>0.5</v>
+      <c r="H149">
+        <v>398</v>
+      </c>
+      <c r="I149">
+        <v>117</v>
+      </c>
+      <c r="J149">
+        <v>3421</v>
+      </c>
+      <c r="K149">
+        <v>272</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>18</v>
@@ -7649,29 +7649,29 @@
       <c r="D150" s="1">
         <v>3</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150">
         <v>5.15</v>
       </c>
-      <c r="F150" s="1">
+      <c r="F150">
         <v>6.03</v>
       </c>
-      <c r="G150" s="1">
+      <c r="G150">
         <v>6.54</v>
       </c>
-      <c r="H150" s="1">
-        <v>220</v>
-      </c>
-      <c r="I150" s="1">
-        <v>73.5</v>
-      </c>
-      <c r="J150" s="1">
-        <v>2177.5</v>
-      </c>
-      <c r="K150" s="1">
-        <v>176</v>
-      </c>
-      <c r="L150" s="1">
-        <v>0.7</v>
+      <c r="H150">
+        <v>493</v>
+      </c>
+      <c r="I150">
+        <v>165</v>
+      </c>
+      <c r="J150">
+        <v>4878</v>
+      </c>
+      <c r="K150">
+        <v>395</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
       </c>
       <c r="M150" s="1" t="s">
         <v>30</v>
@@ -7696,29 +7696,29 @@
       <c r="D151" s="1">
         <v>3</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151">
         <v>4.76</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F151">
         <v>5.67</v>
       </c>
-      <c r="G151" s="1">
+      <c r="G151">
         <v>6.38</v>
       </c>
-      <c r="H151" s="1">
-        <v>199.5</v>
-      </c>
-      <c r="I151" s="1">
-        <v>54</v>
-      </c>
-      <c r="J151" s="1">
-        <v>1784.5</v>
-      </c>
-      <c r="K151" s="1">
-        <v>128</v>
-      </c>
-      <c r="L151" s="1">
-        <v>0.4</v>
+      <c r="H151">
+        <v>447</v>
+      </c>
+      <c r="I151">
+        <v>121</v>
+      </c>
+      <c r="J151">
+        <v>3998</v>
+      </c>
+      <c r="K151">
+        <v>287</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>30</v>
@@ -7743,29 +7743,29 @@
       <c r="D152" s="1">
         <v>3</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F152" s="1">
+      <c r="F152">
         <v>5.98</v>
       </c>
-      <c r="G152" s="1">
+      <c r="G152">
         <v>6.56</v>
       </c>
-      <c r="H152" s="1">
-        <v>234.5</v>
-      </c>
-      <c r="I152" s="1">
-        <v>81</v>
-      </c>
-      <c r="J152" s="1">
-        <v>2205</v>
-      </c>
-      <c r="K152" s="1">
-        <v>214</v>
-      </c>
-      <c r="L152" s="1">
-        <v>0.9</v>
+      <c r="H152">
+        <v>526</v>
+      </c>
+      <c r="I152">
+        <v>182</v>
+      </c>
+      <c r="J152">
+        <v>4940</v>
+      </c>
+      <c r="K152">
+        <v>480</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>30</v>
@@ -7790,29 +7790,29 @@
       <c r="D153" s="1">
         <v>3</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153">
         <v>5</v>
       </c>
-      <c r="F153" s="1">
+      <c r="F153">
         <v>5.89</v>
       </c>
-      <c r="G153" s="1">
+      <c r="G153">
         <v>6.47</v>
       </c>
-      <c r="H153" s="1">
-        <v>218.5</v>
-      </c>
-      <c r="I153" s="1">
-        <v>68.5</v>
-      </c>
-      <c r="J153" s="1">
-        <v>2260</v>
-      </c>
-      <c r="K153" s="1">
-        <v>175</v>
-      </c>
-      <c r="L153" s="1">
-        <v>0.7</v>
+      <c r="H153">
+        <v>490</v>
+      </c>
+      <c r="I153">
+        <v>154</v>
+      </c>
+      <c r="J153">
+        <v>5063</v>
+      </c>
+      <c r="K153">
+        <v>392</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
       </c>
       <c r="M153" s="1" t="s">
         <v>30</v>
@@ -7837,29 +7837,29 @@
       <c r="D154" s="1">
         <v>3</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154">
         <v>4.83</v>
       </c>
-      <c r="F154" s="1">
+      <c r="F154">
         <v>5.74</v>
       </c>
-      <c r="G154" s="1">
+      <c r="G154">
         <v>6.41</v>
       </c>
-      <c r="H154" s="1">
-        <v>201.5</v>
-      </c>
-      <c r="I154" s="1">
-        <v>87.5</v>
-      </c>
-      <c r="J154" s="1">
-        <v>2262.5</v>
-      </c>
-      <c r="K154" s="1">
-        <v>233</v>
-      </c>
-      <c r="L154" s="1">
-        <v>0.65</v>
+      <c r="H154">
+        <v>452</v>
+      </c>
+      <c r="I154">
+        <v>196</v>
+      </c>
+      <c r="J154">
+        <v>5068</v>
+      </c>
+      <c r="K154">
+        <v>522</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>23</v>
@@ -7884,29 +7884,29 @@
       <c r="D155" s="1">
         <v>3</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155">
         <v>4.93</v>
       </c>
-      <c r="F155" s="1">
+      <c r="F155">
         <v>5.83</v>
       </c>
-      <c r="G155" s="1">
+      <c r="G155">
         <v>6.4</v>
       </c>
-      <c r="H155" s="1">
-        <v>178.5</v>
-      </c>
-      <c r="I155" s="1">
-        <v>59</v>
-      </c>
-      <c r="J155" s="1">
-        <v>2142.5</v>
-      </c>
-      <c r="K155" s="1">
-        <v>155</v>
-      </c>
-      <c r="L155" s="1">
-        <v>0.4</v>
+      <c r="H155">
+        <v>400</v>
+      </c>
+      <c r="I155">
+        <v>133</v>
+      </c>
+      <c r="J155">
+        <v>4800</v>
+      </c>
+      <c r="K155">
+        <v>348</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>23</v>
@@ -7931,29 +7931,29 @@
       <c r="D156" s="1">
         <v>3</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F156" s="1">
+      <c r="F156">
         <v>5.8</v>
       </c>
-      <c r="G156" s="1">
+      <c r="G156">
         <v>6.41</v>
       </c>
-      <c r="H156" s="1">
-        <v>194.5</v>
-      </c>
-      <c r="I156" s="1">
-        <v>72</v>
-      </c>
-      <c r="J156" s="1">
-        <v>2353</v>
-      </c>
-      <c r="K156" s="1">
-        <v>189.5</v>
-      </c>
-      <c r="L156" s="1">
-        <v>0.7</v>
+      <c r="H156">
+        <v>436</v>
+      </c>
+      <c r="I156">
+        <v>162</v>
+      </c>
+      <c r="J156">
+        <v>5271</v>
+      </c>
+      <c r="K156">
+        <v>425</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>18</v>
@@ -7978,29 +7978,29 @@
       <c r="D157" s="1">
         <v>3</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157">
         <v>4.83</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F157">
         <v>5.74</v>
       </c>
-      <c r="G157" s="1">
+      <c r="G157">
         <v>6.35</v>
       </c>
-      <c r="H157" s="1">
-        <v>187</v>
-      </c>
-      <c r="I157" s="1">
-        <v>65.5</v>
-      </c>
-      <c r="J157" s="1">
-        <v>2349</v>
-      </c>
-      <c r="K157" s="1">
-        <v>157.5</v>
-      </c>
-      <c r="L157" s="1">
-        <v>0.4</v>
+      <c r="H157">
+        <v>419</v>
+      </c>
+      <c r="I157">
+        <v>147</v>
+      </c>
+      <c r="J157">
+        <v>5262</v>
+      </c>
+      <c r="K157">
+        <v>353</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>18</v>
@@ -8025,29 +8025,29 @@
       <c r="D158" s="1">
         <v>3</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158">
         <v>5.24</v>
       </c>
-      <c r="F158" s="1">
+      <c r="F158">
         <v>6.11</v>
       </c>
-      <c r="G158" s="1">
+      <c r="G158">
         <v>6.63</v>
       </c>
-      <c r="H158" s="1">
-        <v>183</v>
-      </c>
-      <c r="I158" s="1">
-        <v>90.5</v>
-      </c>
-      <c r="J158" s="1">
-        <v>1901.5</v>
-      </c>
-      <c r="K158" s="1">
-        <v>178</v>
-      </c>
-      <c r="L158" s="1">
-        <v>1.6</v>
+      <c r="H158">
+        <v>410</v>
+      </c>
+      <c r="I158">
+        <v>203</v>
+      </c>
+      <c r="J158">
+        <v>4260</v>
+      </c>
+      <c r="K158">
+        <v>399</v>
+      </c>
+      <c r="L158">
+        <v>4</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>23</v>
@@ -8072,29 +8072,29 @@
       <c r="D159" s="1">
         <v>3</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159">
         <v>4.8600000000000003</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F159">
         <v>5.76</v>
       </c>
-      <c r="G159" s="1">
+      <c r="G159">
         <v>6.45</v>
       </c>
-      <c r="H159" s="1">
-        <v>151.5</v>
-      </c>
-      <c r="I159" s="1">
-        <v>49.5</v>
-      </c>
-      <c r="J159" s="1">
-        <v>1522</v>
-      </c>
-      <c r="K159" s="1">
-        <v>117</v>
-      </c>
-      <c r="L159" s="1">
-        <v>0.5</v>
+      <c r="H159">
+        <v>340</v>
+      </c>
+      <c r="I159">
+        <v>111</v>
+      </c>
+      <c r="J159">
+        <v>3410</v>
+      </c>
+      <c r="K159">
+        <v>263</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>23</v>
@@ -8119,29 +8119,29 @@
       <c r="D160" s="1">
         <v>3</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160">
         <v>5.05</v>
       </c>
-      <c r="F160" s="1">
+      <c r="F160">
         <v>5.94</v>
       </c>
-      <c r="G160" s="1">
+      <c r="G160">
         <v>6.58</v>
       </c>
-      <c r="H160" s="1">
-        <v>190.5</v>
-      </c>
-      <c r="I160" s="1">
-        <v>71.5</v>
-      </c>
-      <c r="J160" s="1">
-        <v>1703</v>
-      </c>
-      <c r="K160" s="1">
-        <v>160</v>
-      </c>
-      <c r="L160" s="1">
-        <v>0.9</v>
+      <c r="H160">
+        <v>427</v>
+      </c>
+      <c r="I160">
+        <v>161</v>
+      </c>
+      <c r="J160">
+        <v>3815</v>
+      </c>
+      <c r="K160">
+        <v>359</v>
+      </c>
+      <c r="L160">
+        <v>3</v>
       </c>
       <c r="M160" s="1" t="s">
         <v>30</v>
@@ -8166,29 +8166,29 @@
       <c r="D161" s="1">
         <v>3</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161">
         <v>4.88</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F161">
         <v>5.78</v>
       </c>
-      <c r="G161" s="1">
+      <c r="G161">
         <v>6.44</v>
       </c>
-      <c r="H161" s="1">
-        <v>177</v>
-      </c>
-      <c r="I161" s="1">
-        <v>55.5</v>
-      </c>
-      <c r="J161" s="1">
-        <v>1543</v>
-      </c>
-      <c r="K161" s="1">
-        <v>120.5</v>
-      </c>
-      <c r="L161" s="1">
-        <v>0.55000000000000004</v>
+      <c r="H161">
+        <v>397</v>
+      </c>
+      <c r="I161">
+        <v>125</v>
+      </c>
+      <c r="J161">
+        <v>3457</v>
+      </c>
+      <c r="K161">
+        <v>270</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
       </c>
       <c r="M161" s="1" t="s">
         <v>30</v>
@@ -8213,29 +8213,29 @@
       <c r="D162" s="1">
         <v>3</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162">
         <v>5.17</v>
       </c>
-      <c r="F162" s="1">
+      <c r="F162">
         <v>6.04</v>
       </c>
-      <c r="G162" s="1">
+      <c r="G162">
         <v>6.62</v>
       </c>
-      <c r="H162" s="1">
-        <v>231.5</v>
-      </c>
-      <c r="I162" s="1">
-        <v>82.5</v>
-      </c>
-      <c r="J162" s="1">
-        <v>2001.5</v>
-      </c>
-      <c r="K162" s="1">
-        <v>158</v>
-      </c>
-      <c r="L162" s="1">
-        <v>0.8</v>
+      <c r="H162">
+        <v>519</v>
+      </c>
+      <c r="I162">
+        <v>185</v>
+      </c>
+      <c r="J162">
+        <v>4484</v>
+      </c>
+      <c r="K162">
+        <v>354</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>30</v>
@@ -8260,29 +8260,29 @@
       <c r="D163" s="1">
         <v>3</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163">
         <v>4.71</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F163">
         <v>5.63</v>
       </c>
-      <c r="G163" s="1">
+      <c r="G163">
         <v>6.37</v>
       </c>
-      <c r="H163" s="1">
-        <v>220</v>
-      </c>
-      <c r="I163" s="1">
-        <v>55</v>
-      </c>
-      <c r="J163" s="1">
-        <v>1599.5</v>
-      </c>
-      <c r="K163" s="1">
-        <v>115</v>
-      </c>
-      <c r="L163" s="1">
-        <v>0.25</v>
+      <c r="H163">
+        <v>493</v>
+      </c>
+      <c r="I163">
+        <v>124</v>
+      </c>
+      <c r="J163">
+        <v>3583</v>
+      </c>
+      <c r="K163">
+        <v>258</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>30</v>
@@ -8307,29 +8307,29 @@
       <c r="D164" s="1">
         <v>3</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164">
         <v>5.31</v>
       </c>
-      <c r="F164" s="1">
+      <c r="F164">
         <v>6.17</v>
       </c>
-      <c r="G164" s="1">
+      <c r="G164">
         <v>6.51</v>
       </c>
-      <c r="H164" s="1">
-        <v>253</v>
-      </c>
-      <c r="I164" s="1">
-        <v>95.5</v>
-      </c>
-      <c r="J164" s="1">
-        <v>2477</v>
-      </c>
-      <c r="K164" s="1">
-        <v>222</v>
-      </c>
-      <c r="L164" s="1">
-        <v>0.85</v>
+      <c r="H164">
+        <v>567</v>
+      </c>
+      <c r="I164">
+        <v>214</v>
+      </c>
+      <c r="J164">
+        <v>5549</v>
+      </c>
+      <c r="K164">
+        <v>498</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
       </c>
       <c r="M164" s="1" t="s">
         <v>23</v>
@@ -8354,29 +8354,29 @@
       <c r="D165" s="1">
         <v>3</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165">
         <v>4.93</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F165">
         <v>5.83</v>
       </c>
-      <c r="G165" s="1">
+      <c r="G165">
         <v>6.46</v>
       </c>
-      <c r="H165" s="1">
-        <v>225</v>
-      </c>
-      <c r="I165" s="1">
-        <v>62</v>
-      </c>
-      <c r="J165" s="1">
-        <v>2032</v>
-      </c>
-      <c r="K165" s="1">
-        <v>159.5</v>
-      </c>
-      <c r="L165" s="1">
-        <v>0.3</v>
+      <c r="H165">
+        <v>504</v>
+      </c>
+      <c r="I165">
+        <v>139</v>
+      </c>
+      <c r="J165">
+        <v>4552</v>
+      </c>
+      <c r="K165">
+        <v>358</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>23</v>
@@ -8401,29 +8401,29 @@
       <c r="D166" s="1">
         <v>3</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166">
         <v>5.27</v>
       </c>
-      <c r="F166" s="1">
+      <c r="F166">
         <v>6.14</v>
       </c>
-      <c r="G166" s="1">
+      <c r="G166">
         <v>6.52</v>
       </c>
-      <c r="H166" s="1">
-        <v>231</v>
-      </c>
-      <c r="I166" s="1">
-        <v>91.5</v>
-      </c>
-      <c r="J166" s="1">
-        <v>2421.5</v>
-      </c>
-      <c r="K166" s="1">
-        <v>226</v>
-      </c>
-      <c r="L166" s="1">
-        <v>0.95</v>
+      <c r="H166">
+        <v>518</v>
+      </c>
+      <c r="I166">
+        <v>205</v>
+      </c>
+      <c r="J166">
+        <v>5425</v>
+      </c>
+      <c r="K166">
+        <v>507</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>18</v>
@@ -8448,29 +8448,29 @@
       <c r="D167" s="1">
         <v>3</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167">
         <v>5.12</v>
       </c>
-      <c r="F167" s="1">
+      <c r="F167">
         <v>6</v>
       </c>
-      <c r="G167" s="1">
+      <c r="G167">
         <v>6.53</v>
       </c>
-      <c r="H167" s="1">
-        <v>208.5</v>
-      </c>
-      <c r="I167" s="1">
-        <v>70</v>
-      </c>
-      <c r="J167" s="1">
-        <v>2329</v>
-      </c>
-      <c r="K167" s="1">
-        <v>180</v>
-      </c>
-      <c r="L167" s="1">
-        <v>0.45</v>
+      <c r="H167">
+        <v>468</v>
+      </c>
+      <c r="I167">
+        <v>157</v>
+      </c>
+      <c r="J167">
+        <v>5217</v>
+      </c>
+      <c r="K167">
+        <v>404</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>18</v>
@@ -8495,29 +8495,29 @@
       <c r="D168" s="1">
         <v>3</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168">
         <v>5.4</v>
       </c>
-      <c r="F168" s="1">
+      <c r="F168">
         <v>6.25</v>
       </c>
-      <c r="G168" s="1">
+      <c r="G168">
         <v>6.62</v>
       </c>
-      <c r="H168" s="1">
-        <v>211.5</v>
-      </c>
-      <c r="I168" s="1">
-        <v>85</v>
-      </c>
-      <c r="J168" s="1">
-        <v>2369.5</v>
-      </c>
-      <c r="K168" s="1">
-        <v>206.5</v>
-      </c>
-      <c r="L168" s="1">
-        <v>0.85</v>
+      <c r="H168">
+        <v>474</v>
+      </c>
+      <c r="I168">
+        <v>191</v>
+      </c>
+      <c r="J168">
+        <v>5308</v>
+      </c>
+      <c r="K168">
+        <v>463</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>18</v>
@@ -8542,29 +8542,29 @@
       <c r="D169" s="1">
         <v>3</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F169">
         <v>5.98</v>
       </c>
-      <c r="G169" s="1">
+      <c r="G169">
         <v>6.58</v>
       </c>
-      <c r="H169" s="1">
-        <v>196.5</v>
-      </c>
-      <c r="I169" s="1">
-        <v>62</v>
-      </c>
-      <c r="J169" s="1">
-        <v>1987.5</v>
-      </c>
-      <c r="K169" s="1">
-        <v>156.5</v>
-      </c>
-      <c r="L169" s="1">
-        <v>1.05</v>
+      <c r="H169">
+        <v>441</v>
+      </c>
+      <c r="I169">
+        <v>139</v>
+      </c>
+      <c r="J169">
+        <v>4452</v>
+      </c>
+      <c r="K169">
+        <v>351</v>
+      </c>
+      <c r="L169">
+        <v>3</v>
       </c>
       <c r="M169" s="1" t="s">
         <v>18</v>
@@ -8589,29 +8589,29 @@
       <c r="D170" s="1">
         <v>3</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170">
         <v>5.25</v>
       </c>
-      <c r="F170" s="1">
+      <c r="F170">
         <v>6.12</v>
       </c>
-      <c r="G170" s="1">
+      <c r="G170">
         <v>6.56</v>
       </c>
-      <c r="H170" s="1">
-        <v>194.5</v>
-      </c>
-      <c r="I170" s="1">
-        <v>79</v>
-      </c>
-      <c r="J170" s="1">
-        <v>1883.5</v>
-      </c>
-      <c r="K170" s="1">
-        <v>160.5</v>
-      </c>
-      <c r="L170" s="1">
-        <v>0.85</v>
+      <c r="H170">
+        <v>436</v>
+      </c>
+      <c r="I170">
+        <v>177</v>
+      </c>
+      <c r="J170">
+        <v>4220</v>
+      </c>
+      <c r="K170">
+        <v>360</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>18</v>
@@ -8636,29 +8636,29 @@
       <c r="D171" s="1">
         <v>3</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E171">
         <v>4.71</v>
       </c>
-      <c r="F171" s="1">
+      <c r="F171">
         <v>5.63</v>
       </c>
-      <c r="G171" s="1">
+      <c r="G171">
         <v>6.41</v>
       </c>
-      <c r="H171" s="1">
-        <v>214</v>
-      </c>
-      <c r="I171" s="1">
-        <v>63.5</v>
-      </c>
-      <c r="J171" s="1">
-        <v>1698</v>
-      </c>
-      <c r="K171" s="1">
-        <v>134</v>
-      </c>
-      <c r="L171" s="1">
-        <v>0.5</v>
+      <c r="H171">
+        <v>480</v>
+      </c>
+      <c r="I171">
+        <v>143</v>
+      </c>
+      <c r="J171">
+        <v>3804</v>
+      </c>
+      <c r="K171">
+        <v>301</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
       </c>
       <c r="M171" s="1" t="s">
         <v>18</v>
@@ -8683,29 +8683,29 @@
       <c r="D172" s="1">
         <v>3</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172">
         <v>5.07</v>
       </c>
-      <c r="F172" s="1">
+      <c r="F172">
         <v>5.95</v>
       </c>
-      <c r="G172" s="1">
+      <c r="G172">
         <v>6.42</v>
       </c>
-      <c r="H172" s="1">
-        <v>239.5</v>
-      </c>
-      <c r="I172" s="1">
-        <v>92.5</v>
-      </c>
-      <c r="J172" s="1">
-        <v>2314</v>
-      </c>
-      <c r="K172" s="1">
-        <v>201</v>
-      </c>
-      <c r="L172" s="1">
-        <v>1.2</v>
+      <c r="H172">
+        <v>537</v>
+      </c>
+      <c r="I172">
+        <v>208</v>
+      </c>
+      <c r="J172">
+        <v>5184</v>
+      </c>
+      <c r="K172">
+        <v>451</v>
+      </c>
+      <c r="L172">
+        <v>3</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>30</v>
@@ -8730,29 +8730,29 @@
       <c r="D173" s="1">
         <v>3</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173">
         <v>4.7300000000000004</v>
       </c>
-      <c r="F173" s="1">
+      <c r="F173">
         <v>5.64</v>
       </c>
-      <c r="G173" s="1">
+      <c r="G173">
         <v>6.37</v>
       </c>
-      <c r="H173" s="1">
-        <v>267</v>
-      </c>
-      <c r="I173" s="1">
-        <v>74.5</v>
-      </c>
-      <c r="J173" s="1">
-        <v>2247.5</v>
-      </c>
-      <c r="K173" s="1">
-        <v>181</v>
-      </c>
-      <c r="L173" s="1">
-        <v>0.55000000000000004</v>
+      <c r="H173">
+        <v>599</v>
+      </c>
+      <c r="I173">
+        <v>167</v>
+      </c>
+      <c r="J173">
+        <v>5035</v>
+      </c>
+      <c r="K173">
+        <v>406</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
       </c>
       <c r="M173" s="1" t="s">
         <v>30</v>
@@ -8777,29 +8777,29 @@
       <c r="D174" s="1">
         <v>3</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174">
         <v>5.28</v>
       </c>
-      <c r="F174" s="1">
+      <c r="F174">
         <v>6.14</v>
       </c>
-      <c r="G174" s="1">
+      <c r="G174">
         <v>6.49</v>
       </c>
-      <c r="H174" s="1">
-        <v>242</v>
-      </c>
-      <c r="I174" s="1">
-        <v>122</v>
-      </c>
-      <c r="J174" s="1">
-        <v>2914</v>
-      </c>
-      <c r="K174" s="1">
-        <v>246</v>
-      </c>
-      <c r="L174" s="1">
-        <v>1</v>
+      <c r="H174">
+        <v>543</v>
+      </c>
+      <c r="I174">
+        <v>274</v>
+      </c>
+      <c r="J174">
+        <v>6528</v>
+      </c>
+      <c r="K174">
+        <v>552</v>
+      </c>
+      <c r="L174">
+        <v>3</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>23</v>
@@ -8824,29 +8824,29 @@
       <c r="D175" s="1">
         <v>3</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175">
         <v>5.0199999999999996</v>
       </c>
-      <c r="F175" s="1">
+      <c r="F175">
         <v>5.91</v>
       </c>
-      <c r="G175" s="1">
+      <c r="G175">
         <v>6.49</v>
       </c>
-      <c r="H175" s="1">
-        <v>226.5</v>
-      </c>
-      <c r="I175" s="1">
-        <v>83</v>
-      </c>
-      <c r="J175" s="1">
-        <v>2664.5</v>
-      </c>
-      <c r="K175" s="1">
-        <v>199.5</v>
-      </c>
-      <c r="L175" s="1">
-        <v>0.5</v>
+      <c r="H175">
+        <v>508</v>
+      </c>
+      <c r="I175">
+        <v>186</v>
+      </c>
+      <c r="J175">
+        <v>5969</v>
+      </c>
+      <c r="K175">
+        <v>447</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
       </c>
       <c r="M175" s="1" t="s">
         <v>23</v>
@@ -8871,29 +8871,29 @@
       <c r="D176" s="1">
         <v>3</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E176">
         <v>5.46</v>
       </c>
-      <c r="F176" s="1">
+      <c r="F176">
         <v>6.31</v>
       </c>
-      <c r="G176" s="1">
+      <c r="G176">
         <v>6.59</v>
       </c>
-      <c r="H176" s="1">
-        <v>222</v>
-      </c>
-      <c r="I176" s="1">
-        <v>85</v>
-      </c>
-      <c r="J176" s="1">
-        <v>2653</v>
-      </c>
-      <c r="K176" s="1">
-        <v>211</v>
-      </c>
-      <c r="L176" s="1">
-        <v>0.9</v>
+      <c r="H176">
+        <v>498</v>
+      </c>
+      <c r="I176">
+        <v>191</v>
+      </c>
+      <c r="J176">
+        <v>5943</v>
+      </c>
+      <c r="K176">
+        <v>473</v>
+      </c>
+      <c r="L176">
+        <v>3</v>
       </c>
       <c r="M176" s="1" t="s">
         <v>30</v>
@@ -8918,29 +8918,29 @@
       <c r="D177" s="1">
         <v>3</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E177">
         <v>5.31</v>
       </c>
-      <c r="F177" s="1">
+      <c r="F177">
         <v>6.17</v>
       </c>
-      <c r="G177" s="1">
+      <c r="G177">
         <v>6.63</v>
       </c>
-      <c r="H177" s="1">
-        <v>231.5</v>
-      </c>
-      <c r="I177" s="1">
-        <v>75.5</v>
-      </c>
-      <c r="J177" s="1">
-        <v>2610</v>
-      </c>
-      <c r="K177" s="1">
-        <v>198</v>
-      </c>
-      <c r="L177" s="1">
-        <v>0.5</v>
+      <c r="H177">
+        <v>519</v>
+      </c>
+      <c r="I177">
+        <v>170</v>
+      </c>
+      <c r="J177">
+        <v>5847</v>
+      </c>
+      <c r="K177">
+        <v>444</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
       </c>
       <c r="M177" s="1" t="s">
         <v>30</v>
@@ -8965,29 +8965,29 @@
       <c r="D178" s="1">
         <v>3</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E178">
         <v>5.51</v>
       </c>
-      <c r="F178" s="1">
+      <c r="F178">
         <v>6.35</v>
       </c>
-      <c r="G178" s="1">
+      <c r="G178">
         <v>6.65</v>
       </c>
-      <c r="H178" s="1">
-        <v>215.5</v>
-      </c>
-      <c r="I178" s="1">
-        <v>91</v>
-      </c>
-      <c r="J178" s="1">
-        <v>2360.5</v>
-      </c>
-      <c r="K178" s="1">
-        <v>186</v>
-      </c>
-      <c r="L178" s="1">
-        <v>0.85</v>
+      <c r="H178">
+        <v>483</v>
+      </c>
+      <c r="I178">
+        <v>204</v>
+      </c>
+      <c r="J178">
+        <v>5288</v>
+      </c>
+      <c r="K178">
+        <v>417</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>23</v>
@@ -9012,29 +9012,29 @@
       <c r="D179" s="1">
         <v>3</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E179">
         <v>5.09</v>
       </c>
-      <c r="F179" s="1">
+      <c r="F179">
         <v>5.97</v>
       </c>
-      <c r="G179" s="1">
+      <c r="G179">
         <v>6.52</v>
       </c>
-      <c r="H179" s="1">
-        <v>204.5</v>
-      </c>
-      <c r="I179" s="1">
-        <v>69</v>
-      </c>
-      <c r="J179" s="1">
-        <v>2076.5</v>
-      </c>
-      <c r="K179" s="1">
-        <v>157.5</v>
-      </c>
-      <c r="L179" s="1">
-        <v>0.95</v>
+      <c r="H179">
+        <v>459</v>
+      </c>
+      <c r="I179">
+        <v>155</v>
+      </c>
+      <c r="J179">
+        <v>4652</v>
+      </c>
+      <c r="K179">
+        <v>353</v>
+      </c>
+      <c r="L179">
+        <v>3</v>
       </c>
       <c r="M179" s="1" t="s">
         <v>23</v>
@@ -9059,29 +9059,29 @@
       <c r="D180" s="1">
         <v>3</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E180">
         <v>5.37</v>
       </c>
-      <c r="F180" s="1">
+      <c r="F180">
         <v>6.23</v>
       </c>
-      <c r="G180" s="1">
+      <c r="G180">
         <v>6.59</v>
       </c>
-      <c r="H180" s="1">
-        <v>230.5</v>
-      </c>
-      <c r="I180" s="1">
-        <v>96</v>
-      </c>
-      <c r="J180" s="1">
-        <v>2307</v>
-      </c>
-      <c r="K180" s="1">
-        <v>207</v>
-      </c>
-      <c r="L180" s="1">
-        <v>1.25</v>
+      <c r="H180">
+        <v>517</v>
+      </c>
+      <c r="I180">
+        <v>216</v>
+      </c>
+      <c r="J180">
+        <v>5168</v>
+      </c>
+      <c r="K180">
+        <v>464</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>18</v>
@@ -9106,29 +9106,29 @@
       <c r="D181" s="1">
         <v>3</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E181">
         <v>4.97</v>
       </c>
-      <c r="F181" s="1">
+      <c r="F181">
         <v>5.86</v>
       </c>
-      <c r="G181" s="1">
+      <c r="G181">
         <v>6.43</v>
       </c>
-      <c r="H181" s="1">
-        <v>243.5</v>
-      </c>
-      <c r="I181" s="1">
-        <v>74.5</v>
-      </c>
-      <c r="J181" s="1">
-        <v>2106.5</v>
-      </c>
-      <c r="K181" s="1">
-        <v>162</v>
-      </c>
-      <c r="L181" s="1">
-        <v>0.4</v>
+      <c r="H181">
+        <v>546</v>
+      </c>
+      <c r="I181">
+        <v>167</v>
+      </c>
+      <c r="J181">
+        <v>4719</v>
+      </c>
+      <c r="K181">
+        <v>363</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>18</v>
@@ -9153,29 +9153,29 @@
       <c r="D182" s="1">
         <v>3</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E182">
         <v>5.94</v>
       </c>
-      <c r="F182" s="1">
+      <c r="F182">
         <v>6.75</v>
       </c>
-      <c r="G182" s="1">
+      <c r="G182">
         <v>6.82</v>
       </c>
-      <c r="H182" s="1">
-        <v>204</v>
-      </c>
-      <c r="I182" s="1">
-        <v>119.5</v>
-      </c>
-      <c r="J182" s="1">
-        <v>2634</v>
-      </c>
-      <c r="K182" s="1">
-        <v>230.5</v>
-      </c>
-      <c r="L182" s="1">
-        <v>1.4</v>
+      <c r="H182">
+        <v>457</v>
+      </c>
+      <c r="I182">
+        <v>268</v>
+      </c>
+      <c r="J182">
+        <v>5901</v>
+      </c>
+      <c r="K182">
+        <v>517</v>
+      </c>
+      <c r="L182">
+        <v>4</v>
       </c>
       <c r="M182" s="1" t="s">
         <v>18</v>
@@ -9200,29 +9200,29 @@
       <c r="D183" s="1">
         <v>3</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E183">
         <v>5.95</v>
       </c>
-      <c r="F183" s="1">
+      <c r="F183">
         <v>6.75</v>
       </c>
-      <c r="G183" s="1">
+      <c r="G183">
         <v>6.83</v>
       </c>
-      <c r="H183" s="1">
-        <v>197</v>
-      </c>
-      <c r="I183" s="1">
-        <v>85</v>
-      </c>
-      <c r="J183" s="1">
-        <v>2884</v>
-      </c>
-      <c r="K183" s="1">
-        <v>195</v>
-      </c>
-      <c r="L183" s="1">
-        <v>1.2</v>
+      <c r="H183">
+        <v>442</v>
+      </c>
+      <c r="I183">
+        <v>191</v>
+      </c>
+      <c r="J183">
+        <v>6461</v>
+      </c>
+      <c r="K183">
+        <v>437</v>
+      </c>
+      <c r="L183">
+        <v>3</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>18</v>
@@ -9247,29 +9247,29 @@
       <c r="D184" s="1">
         <v>3</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E184">
         <v>5.89</v>
       </c>
-      <c r="F184" s="1">
+      <c r="F184">
         <v>6.7</v>
       </c>
-      <c r="G184" s="1">
+      <c r="G184">
         <v>6.8</v>
       </c>
-      <c r="H184" s="1">
-        <v>217</v>
-      </c>
-      <c r="I184" s="1">
-        <v>138.5</v>
-      </c>
-      <c r="J184" s="1">
-        <v>2616</v>
-      </c>
-      <c r="K184" s="1">
-        <v>234.5</v>
-      </c>
-      <c r="L184" s="1">
-        <v>1.35</v>
+      <c r="H184">
+        <v>487</v>
+      </c>
+      <c r="I184">
+        <v>311</v>
+      </c>
+      <c r="J184">
+        <v>5860</v>
+      </c>
+      <c r="K184">
+        <v>526</v>
+      </c>
+      <c r="L184">
+        <v>4</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>23</v>
@@ -9294,29 +9294,29 @@
       <c r="D185" s="1">
         <v>3</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E185">
         <v>5.89</v>
       </c>
-      <c r="F185" s="1">
+      <c r="F185">
         <v>6.7</v>
       </c>
-      <c r="G185" s="1">
+      <c r="G185">
         <v>6.78</v>
       </c>
-      <c r="H185" s="1">
-        <v>236</v>
-      </c>
-      <c r="I185" s="1">
-        <v>92.5</v>
-      </c>
-      <c r="J185" s="1">
-        <v>2550</v>
-      </c>
-      <c r="K185" s="1">
-        <v>202.5</v>
-      </c>
-      <c r="L185" s="1">
-        <v>1.2</v>
+      <c r="H185">
+        <v>529</v>
+      </c>
+      <c r="I185">
+        <v>208</v>
+      </c>
+      <c r="J185">
+        <v>5712</v>
+      </c>
+      <c r="K185">
+        <v>454</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>23</v>
@@ -9341,29 +9341,29 @@
       <c r="D186" s="1">
         <v>3</v>
       </c>
-      <c r="E186" s="1">
+      <c r="E186">
         <v>6.09</v>
       </c>
-      <c r="F186" s="1">
+      <c r="F186">
         <v>6.88</v>
       </c>
-      <c r="G186" s="1">
+      <c r="G186">
         <v>6.94</v>
       </c>
-      <c r="H186" s="1">
-        <v>236.5</v>
-      </c>
-      <c r="I186" s="1">
-        <v>149.5</v>
-      </c>
-      <c r="J186" s="1">
-        <v>2928.5</v>
-      </c>
-      <c r="K186" s="1">
-        <v>253.5</v>
-      </c>
-      <c r="L186" s="1">
-        <v>1.85</v>
+      <c r="H186">
+        <v>530</v>
+      </c>
+      <c r="I186">
+        <v>335</v>
+      </c>
+      <c r="J186">
+        <v>6560</v>
+      </c>
+      <c r="K186">
+        <v>568</v>
+      </c>
+      <c r="L186">
+        <v>5</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>30</v>
@@ -9388,29 +9388,29 @@
       <c r="D187" s="1">
         <v>3</v>
       </c>
-      <c r="E187" s="1">
+      <c r="E187">
         <v>6.06</v>
       </c>
-      <c r="F187" s="1">
+      <c r="F187">
         <v>6.85</v>
       </c>
-      <c r="G187" s="1">
+      <c r="G187">
         <v>6.86</v>
       </c>
-      <c r="H187" s="1">
-        <v>232</v>
-      </c>
-      <c r="I187" s="1">
-        <v>102</v>
-      </c>
-      <c r="J187" s="1">
-        <v>2884.5</v>
-      </c>
-      <c r="K187" s="1">
-        <v>205</v>
-      </c>
-      <c r="L187" s="1">
-        <v>1.55</v>
+      <c r="H187">
+        <v>520</v>
+      </c>
+      <c r="I187">
+        <v>229</v>
+      </c>
+      <c r="J187">
+        <v>6462</v>
+      </c>
+      <c r="K187">
+        <v>460</v>
+      </c>
+      <c r="L187">
+        <v>4</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>30</v>
@@ -9435,29 +9435,29 @@
       <c r="D188" s="1">
         <v>3</v>
       </c>
-      <c r="E188" s="1">
+      <c r="E188">
         <v>5.87</v>
       </c>
-      <c r="F188" s="1">
+      <c r="F188">
         <v>6.68</v>
       </c>
-      <c r="G188" s="1">
+      <c r="G188">
         <v>6.82</v>
       </c>
-      <c r="H188" s="1">
-        <v>254.5</v>
-      </c>
-      <c r="I188" s="1">
-        <v>168.5</v>
-      </c>
-      <c r="J188" s="1">
-        <v>2558</v>
-      </c>
-      <c r="K188" s="1">
-        <v>234.5</v>
-      </c>
-      <c r="L188" s="1">
-        <v>1.55</v>
+      <c r="H188">
+        <v>571</v>
+      </c>
+      <c r="I188">
+        <v>378</v>
+      </c>
+      <c r="J188">
+        <v>5730</v>
+      </c>
+      <c r="K188">
+        <v>526</v>
+      </c>
+      <c r="L188">
+        <v>4</v>
       </c>
       <c r="M188" s="1" t="s">
         <v>18</v>
@@ -9482,29 +9482,29 @@
       <c r="D189" s="1">
         <v>3</v>
       </c>
-      <c r="E189" s="1">
+      <c r="E189">
         <v>5.75</v>
       </c>
-      <c r="F189" s="1">
+      <c r="F189">
         <v>6.57</v>
       </c>
-      <c r="G189" s="1">
+      <c r="G189">
         <v>6.73</v>
       </c>
-      <c r="H189" s="1">
-        <v>242.5</v>
-      </c>
-      <c r="I189" s="1">
-        <v>123.5</v>
-      </c>
-      <c r="J189" s="1">
-        <v>2666</v>
-      </c>
-      <c r="K189" s="1">
-        <v>212.5</v>
-      </c>
-      <c r="L189" s="1">
-        <v>1.65</v>
+      <c r="H189">
+        <v>544</v>
+      </c>
+      <c r="I189">
+        <v>277</v>
+      </c>
+      <c r="J189">
+        <v>5972</v>
+      </c>
+      <c r="K189">
+        <v>476</v>
+      </c>
+      <c r="L189">
+        <v>4</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>18</v>
@@ -9529,29 +9529,29 @@
       <c r="D190" s="1">
         <v>3</v>
       </c>
-      <c r="E190" s="1">
+      <c r="E190">
         <v>6.3</v>
       </c>
-      <c r="F190" s="1">
+      <c r="F190">
         <v>7.07</v>
       </c>
-      <c r="G190" s="1">
+      <c r="G190">
         <v>7.04</v>
       </c>
-      <c r="H190" s="1">
-        <v>232.5</v>
-      </c>
-      <c r="I190" s="1">
-        <v>238</v>
-      </c>
-      <c r="J190" s="1">
-        <v>2913.5</v>
-      </c>
-      <c r="K190" s="1">
-        <v>243</v>
-      </c>
-      <c r="L190" s="1">
-        <v>2.4500000000000002</v>
+      <c r="H190">
+        <v>521</v>
+      </c>
+      <c r="I190">
+        <v>534</v>
+      </c>
+      <c r="J190">
+        <v>6527</v>
+      </c>
+      <c r="K190">
+        <v>545</v>
+      </c>
+      <c r="L190">
+        <v>6</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>23</v>
@@ -9576,29 +9576,29 @@
       <c r="D191" s="1">
         <v>3</v>
       </c>
-      <c r="E191" s="1">
+      <c r="E191">
         <v>6.27</v>
       </c>
-      <c r="F191" s="1">
+      <c r="F191">
         <v>7.05</v>
       </c>
-      <c r="G191" s="1">
+      <c r="G191">
         <v>6.96</v>
       </c>
-      <c r="H191" s="1">
-        <v>223</v>
-      </c>
-      <c r="I191" s="1">
-        <v>116.5</v>
-      </c>
-      <c r="J191" s="1">
-        <v>3068</v>
-      </c>
-      <c r="K191" s="1">
-        <v>198</v>
-      </c>
-      <c r="L191" s="1">
-        <v>2.35</v>
+      <c r="H191">
+        <v>500</v>
+      </c>
+      <c r="I191">
+        <v>261</v>
+      </c>
+      <c r="J191">
+        <v>6873</v>
+      </c>
+      <c r="K191">
+        <v>444</v>
+      </c>
+      <c r="L191">
+        <v>6</v>
       </c>
       <c r="M191" s="1" t="s">
         <v>23</v>
@@ -9623,29 +9623,29 @@
       <c r="D192" s="1">
         <v>3</v>
       </c>
-      <c r="E192" s="1">
+      <c r="E192">
         <v>5.87</v>
       </c>
-      <c r="F192" s="1">
+      <c r="F192">
         <v>6.68</v>
       </c>
-      <c r="G192" s="1">
+      <c r="G192">
         <v>6.86</v>
       </c>
-      <c r="H192" s="1">
-        <v>243.5</v>
-      </c>
-      <c r="I192" s="1">
-        <v>144</v>
-      </c>
-      <c r="J192" s="1">
-        <v>2381.5</v>
-      </c>
-      <c r="K192" s="1">
-        <v>224.5</v>
-      </c>
-      <c r="L192" s="1">
-        <v>1.6</v>
+      <c r="H192">
+        <v>546</v>
+      </c>
+      <c r="I192">
+        <v>323</v>
+      </c>
+      <c r="J192">
+        <v>5335</v>
+      </c>
+      <c r="K192">
+        <v>503</v>
+      </c>
+      <c r="L192">
+        <v>4</v>
       </c>
       <c r="M192" s="1" t="s">
         <v>30</v>
@@ -9670,29 +9670,29 @@
       <c r="D193" s="1">
         <v>3</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E193">
         <v>5.94</v>
       </c>
-      <c r="F193" s="1">
+      <c r="F193">
         <v>6.75</v>
       </c>
-      <c r="G193" s="1">
+      <c r="G193">
         <v>6.82</v>
       </c>
-      <c r="H193" s="1">
-        <v>238.5</v>
-      </c>
-      <c r="I193" s="1">
-        <v>101</v>
-      </c>
-      <c r="J193" s="1">
-        <v>2597</v>
-      </c>
-      <c r="K193" s="1">
-        <v>200</v>
-      </c>
-      <c r="L193" s="1">
-        <v>1.55</v>
+      <c r="H193">
+        <v>535</v>
+      </c>
+      <c r="I193">
+        <v>227</v>
+      </c>
+      <c r="J193">
+        <v>5818</v>
+      </c>
+      <c r="K193">
+        <v>448</v>
+      </c>
+      <c r="L193">
+        <v>4</v>
       </c>
       <c r="M193" s="1" t="s">
         <v>30</v>
@@ -9717,29 +9717,29 @@
       <c r="D194" s="1">
         <v>3</v>
       </c>
-      <c r="E194" s="1">
+      <c r="E194">
         <v>6.08</v>
       </c>
-      <c r="F194" s="1">
+      <c r="F194">
         <v>6.87</v>
       </c>
-      <c r="G194" s="1">
+      <c r="G194">
         <v>6.95</v>
       </c>
-      <c r="H194" s="1">
-        <v>241.5</v>
-      </c>
-      <c r="I194" s="1">
-        <v>146.5</v>
-      </c>
-      <c r="J194" s="1">
-        <v>2801</v>
-      </c>
-      <c r="K194" s="1">
-        <v>234.5</v>
-      </c>
-      <c r="L194" s="1">
-        <v>8</v>
+      <c r="H194">
+        <v>541</v>
+      </c>
+      <c r="I194">
+        <v>329</v>
+      </c>
+      <c r="J194">
+        <v>6275</v>
+      </c>
+      <c r="K194">
+        <v>526</v>
+      </c>
+      <c r="L194">
+        <v>18</v>
       </c>
       <c r="M194" s="1" t="s">
         <v>23</v>
@@ -9764,29 +9764,29 @@
       <c r="D195" s="1">
         <v>3</v>
       </c>
-      <c r="E195" s="1">
+      <c r="E195">
         <v>6.05</v>
       </c>
-      <c r="F195" s="1">
+      <c r="F195">
         <v>6.85</v>
       </c>
-      <c r="G195" s="1">
+      <c r="G195">
         <v>6.88</v>
       </c>
-      <c r="H195" s="1">
-        <v>237</v>
-      </c>
-      <c r="I195" s="1">
-        <v>98</v>
-      </c>
-      <c r="J195" s="1">
-        <v>2662</v>
-      </c>
-      <c r="K195" s="1">
-        <v>184.5</v>
-      </c>
-      <c r="L195" s="1">
-        <v>6.5</v>
+      <c r="H195">
+        <v>531</v>
+      </c>
+      <c r="I195">
+        <v>220</v>
+      </c>
+      <c r="J195">
+        <v>5963</v>
+      </c>
+      <c r="K195">
+        <v>414</v>
+      </c>
+      <c r="L195">
+        <v>15</v>
       </c>
       <c r="M195" s="1" t="s">
         <v>23</v>
@@ -9811,29 +9811,29 @@
       <c r="D196" s="1">
         <v>3</v>
       </c>
-      <c r="E196" s="1">
+      <c r="E196">
         <v>5.94</v>
       </c>
-      <c r="F196" s="1">
+      <c r="F196">
         <v>6.75</v>
       </c>
-      <c r="G196" s="1">
+      <c r="G196">
         <v>6.88</v>
       </c>
-      <c r="H196" s="1">
-        <v>247</v>
-      </c>
-      <c r="I196" s="1">
-        <v>163.5</v>
-      </c>
-      <c r="J196" s="1">
-        <v>2418.5</v>
-      </c>
-      <c r="K196" s="1">
-        <v>233.5</v>
-      </c>
-      <c r="L196" s="1">
-        <v>2.5499999999999998</v>
+      <c r="H196">
+        <v>554</v>
+      </c>
+      <c r="I196">
+        <v>367</v>
+      </c>
+      <c r="J196">
+        <v>5418</v>
+      </c>
+      <c r="K196">
+        <v>524</v>
+      </c>
+      <c r="L196">
+        <v>6</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>30</v>
@@ -9858,29 +9858,29 @@
       <c r="D197" s="1">
         <v>3</v>
       </c>
-      <c r="E197" s="1">
+      <c r="E197">
         <v>5.96</v>
       </c>
-      <c r="F197" s="1">
+      <c r="F197">
         <v>6.76</v>
       </c>
-      <c r="G197" s="1">
+      <c r="G197">
         <v>6.83</v>
       </c>
-      <c r="H197" s="1">
-        <v>249.5</v>
-      </c>
-      <c r="I197" s="1">
-        <v>101.5</v>
-      </c>
-      <c r="J197" s="1">
-        <v>2627</v>
-      </c>
-      <c r="K197" s="1">
-        <v>212</v>
-      </c>
-      <c r="L197" s="1">
-        <v>3.15</v>
+      <c r="H197">
+        <v>559</v>
+      </c>
+      <c r="I197">
+        <v>228</v>
+      </c>
+      <c r="J197">
+        <v>5885</v>
+      </c>
+      <c r="K197">
+        <v>475</v>
+      </c>
+      <c r="L197">
+        <v>8</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>30</v>
@@ -9905,29 +9905,29 @@
       <c r="D198" s="1">
         <v>3</v>
       </c>
-      <c r="E198" s="1">
+      <c r="E198">
         <v>6.2</v>
       </c>
-      <c r="F198" s="1">
+      <c r="F198">
         <v>6.98</v>
       </c>
-      <c r="G198" s="1">
+      <c r="G198">
         <v>6.99</v>
       </c>
-      <c r="H198" s="1">
-        <v>239.5</v>
-      </c>
-      <c r="I198" s="1">
-        <v>186</v>
-      </c>
-      <c r="J198" s="1">
-        <v>2744.5</v>
-      </c>
-      <c r="K198" s="1">
-        <v>230.5</v>
-      </c>
-      <c r="L198" s="1">
-        <v>7.45</v>
+      <c r="H198">
+        <v>537</v>
+      </c>
+      <c r="I198">
+        <v>417</v>
+      </c>
+      <c r="J198">
+        <v>6148</v>
+      </c>
+      <c r="K198">
+        <v>517</v>
+      </c>
+      <c r="L198">
+        <v>17</v>
       </c>
       <c r="M198" s="1" t="s">
         <v>23</v>
@@ -9952,29 +9952,29 @@
       <c r="D199" s="1">
         <v>3</v>
       </c>
-      <c r="E199" s="1">
+      <c r="E199">
         <v>6.28</v>
       </c>
-      <c r="F199" s="1">
+      <c r="F199">
         <v>7.05</v>
       </c>
-      <c r="G199" s="1">
+      <c r="G199">
         <v>6.97</v>
       </c>
-      <c r="H199" s="1">
-        <v>236</v>
-      </c>
-      <c r="I199" s="1">
-        <v>122</v>
-      </c>
-      <c r="J199" s="1">
-        <v>2980</v>
-      </c>
-      <c r="K199" s="1">
-        <v>205.5</v>
-      </c>
-      <c r="L199" s="1">
-        <v>7.25</v>
+      <c r="H199">
+        <v>529</v>
+      </c>
+      <c r="I199">
+        <v>274</v>
+      </c>
+      <c r="J199">
+        <v>6676</v>
+      </c>
+      <c r="K199">
+        <v>461</v>
+      </c>
+      <c r="L199">
+        <v>17</v>
       </c>
       <c r="M199" s="1" t="s">
         <v>23</v>
@@ -9999,29 +9999,29 @@
       <c r="D200" s="1">
         <v>3</v>
       </c>
-      <c r="E200" s="1">
+      <c r="E200">
         <v>5.9</v>
       </c>
-      <c r="F200" s="1">
+      <c r="F200">
         <v>6.71</v>
       </c>
-      <c r="G200" s="1">
+      <c r="G200">
         <v>6.86</v>
       </c>
-      <c r="H200" s="1">
-        <v>248.5</v>
-      </c>
-      <c r="I200" s="1">
-        <v>149.5</v>
-      </c>
-      <c r="J200" s="1">
-        <v>2434</v>
-      </c>
-      <c r="K200" s="1">
-        <v>224.5</v>
-      </c>
-      <c r="L200" s="1">
-        <v>12.1</v>
+      <c r="H200">
+        <v>557</v>
+      </c>
+      <c r="I200">
+        <v>335</v>
+      </c>
+      <c r="J200">
+        <v>5453</v>
+      </c>
+      <c r="K200">
+        <v>503</v>
+      </c>
+      <c r="L200">
+        <v>28</v>
       </c>
       <c r="M200" s="1" t="s">
         <v>30</v>
@@ -10046,29 +10046,29 @@
       <c r="D201" s="1">
         <v>3</v>
       </c>
-      <c r="E201" s="1">
+      <c r="E201">
         <v>5.99</v>
       </c>
-      <c r="F201" s="1">
+      <c r="F201">
         <v>6.79</v>
       </c>
-      <c r="G201" s="1">
+      <c r="G201">
         <v>6.86</v>
       </c>
-      <c r="H201" s="1">
-        <v>244</v>
-      </c>
-      <c r="I201" s="1">
-        <v>107.5</v>
-      </c>
-      <c r="J201" s="1">
-        <v>2467.5</v>
-      </c>
-      <c r="K201" s="1">
-        <v>201.5</v>
-      </c>
-      <c r="L201" s="1">
-        <v>11.4</v>
+      <c r="H201">
+        <v>547</v>
+      </c>
+      <c r="I201">
+        <v>241</v>
+      </c>
+      <c r="J201">
+        <v>5528</v>
+      </c>
+      <c r="K201">
+        <v>452</v>
+      </c>
+      <c r="L201">
+        <v>26</v>
       </c>
       <c r="M201" s="1" t="s">
         <v>30</v>
@@ -10093,29 +10093,29 @@
       <c r="D202" s="1">
         <v>3</v>
       </c>
-      <c r="E202" s="1">
+      <c r="E202">
         <v>6.08</v>
       </c>
-      <c r="F202" s="1">
+      <c r="F202">
         <v>6.87</v>
       </c>
-      <c r="G202" s="1">
+      <c r="G202">
         <v>6.95</v>
       </c>
-      <c r="H202" s="1">
-        <v>231.5</v>
-      </c>
-      <c r="I202" s="1">
-        <v>170.5</v>
-      </c>
-      <c r="J202" s="1">
-        <v>2827</v>
-      </c>
-      <c r="K202" s="1">
-        <v>253</v>
-      </c>
-      <c r="L202" s="1">
-        <v>3</v>
+      <c r="H202">
+        <v>519</v>
+      </c>
+      <c r="I202">
+        <v>382</v>
+      </c>
+      <c r="J202">
+        <v>6333</v>
+      </c>
+      <c r="K202">
+        <v>567</v>
+      </c>
+      <c r="L202">
+        <v>7</v>
       </c>
       <c r="M202" s="1" t="s">
         <v>18</v>
@@ -10140,29 +10140,29 @@
       <c r="D203" s="1">
         <v>3</v>
       </c>
-      <c r="E203" s="1">
+      <c r="E203">
         <v>6.1</v>
       </c>
-      <c r="F203" s="1">
+      <c r="F203">
         <v>6.89</v>
       </c>
-      <c r="G203" s="1">
+      <c r="G203">
         <v>6.89</v>
       </c>
-      <c r="H203" s="1">
-        <v>229.5</v>
-      </c>
-      <c r="I203" s="1">
-        <v>97</v>
-      </c>
-      <c r="J203" s="1">
-        <v>2858.5</v>
-      </c>
-      <c r="K203" s="1">
-        <v>197</v>
-      </c>
-      <c r="L203" s="1">
-        <v>2.5</v>
+      <c r="H203">
+        <v>515</v>
+      </c>
+      <c r="I203">
+        <v>218</v>
+      </c>
+      <c r="J203">
+        <v>6404</v>
+      </c>
+      <c r="K203">
+        <v>442</v>
+      </c>
+      <c r="L203">
+        <v>6</v>
       </c>
       <c r="M203" s="1" t="s">
         <v>18</v>
@@ -10187,29 +10187,29 @@
       <c r="D204" s="1">
         <v>3</v>
       </c>
-      <c r="E204" s="1">
+      <c r="E204">
         <v>6.05</v>
       </c>
-      <c r="F204" s="1">
+      <c r="F204">
         <v>6.85</v>
       </c>
-      <c r="G204" s="1">
+      <c r="G204">
         <v>6.95</v>
       </c>
-      <c r="H204" s="1">
-        <v>206.5</v>
-      </c>
-      <c r="I204" s="1">
-        <v>126.5</v>
-      </c>
-      <c r="J204" s="1">
-        <v>2478</v>
-      </c>
-      <c r="K204" s="1">
-        <v>238</v>
-      </c>
-      <c r="L204" s="1">
-        <v>4.0999999999999996</v>
+      <c r="H204">
+        <v>463</v>
+      </c>
+      <c r="I204">
+        <v>284</v>
+      </c>
+      <c r="J204">
+        <v>5551</v>
+      </c>
+      <c r="K204">
+        <v>534</v>
+      </c>
+      <c r="L204">
+        <v>10</v>
       </c>
       <c r="M204" s="1" t="s">
         <v>18</v>
@@ -10234,29 +10234,29 @@
       <c r="D205" s="1">
         <v>3</v>
       </c>
-      <c r="E205" s="1">
+      <c r="E205">
         <v>6.08</v>
       </c>
-      <c r="F205" s="1">
+      <c r="F205">
         <v>6.87</v>
       </c>
-      <c r="G205" s="1">
+      <c r="G205">
         <v>6.9</v>
       </c>
-      <c r="H205" s="1">
-        <v>195.5</v>
-      </c>
-      <c r="I205" s="1">
-        <v>100</v>
-      </c>
-      <c r="J205" s="1">
-        <v>2573</v>
-      </c>
-      <c r="K205" s="1">
-        <v>202</v>
-      </c>
-      <c r="L205" s="1">
-        <v>4.1500000000000004</v>
+      <c r="H205">
+        <v>438</v>
+      </c>
+      <c r="I205">
+        <v>224</v>
+      </c>
+      <c r="J205">
+        <v>5764</v>
+      </c>
+      <c r="K205">
+        <v>453</v>
+      </c>
+      <c r="L205">
+        <v>10</v>
       </c>
       <c r="M205" s="1" t="s">
         <v>18</v>
@@ -10281,29 +10281,29 @@
       <c r="D206" s="1">
         <v>3</v>
       </c>
-      <c r="E206" s="1">
+      <c r="E206">
         <v>6.13</v>
       </c>
-      <c r="F206" s="1">
+      <c r="F206">
         <v>6.92</v>
       </c>
-      <c r="G206" s="1">
+      <c r="G206">
         <v>6.95</v>
       </c>
-      <c r="H206" s="1">
-        <v>222</v>
-      </c>
-      <c r="I206" s="1">
-        <v>128</v>
-      </c>
-      <c r="J206" s="1">
-        <v>2729.5</v>
-      </c>
-      <c r="K206" s="1">
-        <v>239.5</v>
-      </c>
-      <c r="L206" s="1">
-        <v>1.5</v>
+      <c r="H206">
+        <v>498</v>
+      </c>
+      <c r="I206">
+        <v>287</v>
+      </c>
+      <c r="J206">
+        <v>6115</v>
+      </c>
+      <c r="K206">
+        <v>537</v>
+      </c>
+      <c r="L206">
+        <v>4</v>
       </c>
       <c r="M206" s="1" t="s">
         <v>30</v>
@@ -10328,29 +10328,29 @@
       <c r="D207" s="1">
         <v>3</v>
       </c>
-      <c r="E207" s="1">
+      <c r="E207">
         <v>6.08</v>
       </c>
-      <c r="F207" s="1">
+      <c r="F207">
         <v>6.87</v>
       </c>
-      <c r="G207" s="1">
+      <c r="G207">
         <v>6.89</v>
       </c>
-      <c r="H207" s="1">
-        <v>219.5</v>
-      </c>
-      <c r="I207" s="1">
-        <v>96.5</v>
-      </c>
-      <c r="J207" s="1">
-        <v>2725</v>
-      </c>
-      <c r="K207" s="1">
-        <v>201</v>
-      </c>
-      <c r="L207" s="1">
-        <v>1.6</v>
+      <c r="H207">
+        <v>492</v>
+      </c>
+      <c r="I207">
+        <v>217</v>
+      </c>
+      <c r="J207">
+        <v>6104</v>
+      </c>
+      <c r="K207">
+        <v>451</v>
+      </c>
+      <c r="L207">
+        <v>4</v>
       </c>
       <c r="M207" s="1" t="s">
         <v>30</v>
@@ -10375,29 +10375,29 @@
       <c r="D208" s="1">
         <v>3</v>
       </c>
-      <c r="E208" s="1">
+      <c r="E208">
         <v>5.87</v>
       </c>
-      <c r="F208" s="1">
+      <c r="F208">
         <v>6.68</v>
       </c>
-      <c r="G208" s="1">
+      <c r="G208">
         <v>6.87</v>
       </c>
-      <c r="H208" s="1">
-        <v>211.5</v>
-      </c>
-      <c r="I208" s="1">
-        <v>181.5</v>
-      </c>
-      <c r="J208" s="1">
-        <v>2567.5</v>
-      </c>
-      <c r="K208" s="1">
-        <v>232.5</v>
-      </c>
-      <c r="L208" s="1">
-        <v>4</v>
+      <c r="H208">
+        <v>474</v>
+      </c>
+      <c r="I208">
+        <v>407</v>
+      </c>
+      <c r="J208">
+        <v>5752</v>
+      </c>
+      <c r="K208">
+        <v>521</v>
+      </c>
+      <c r="L208">
+        <v>9</v>
       </c>
       <c r="M208" s="1" t="s">
         <v>23</v>
@@ -10422,29 +10422,29 @@
       <c r="D209" s="1">
         <v>3</v>
       </c>
-      <c r="E209" s="1">
+      <c r="E209">
         <v>5.9</v>
       </c>
-      <c r="F209" s="1">
+      <c r="F209">
         <v>6.71</v>
       </c>
-      <c r="G209" s="1">
+      <c r="G209">
         <v>6.81</v>
       </c>
-      <c r="H209" s="1">
-        <v>207</v>
-      </c>
-      <c r="I209" s="1">
-        <v>104.5</v>
-      </c>
-      <c r="J209" s="1">
-        <v>2578</v>
-      </c>
-      <c r="K209" s="1">
-        <v>187</v>
-      </c>
-      <c r="L209" s="1">
-        <v>4.05</v>
+      <c r="H209">
+        <v>464</v>
+      </c>
+      <c r="I209">
+        <v>235</v>
+      </c>
+      <c r="J209">
+        <v>5775</v>
+      </c>
+      <c r="K209">
+        <v>419</v>
+      </c>
+      <c r="L209">
+        <v>10</v>
       </c>
       <c r="M209" s="1" t="s">
         <v>23</v>
@@ -10469,29 +10469,29 @@
       <c r="D210" s="1">
         <v>3</v>
       </c>
-      <c r="E210" s="1">
+      <c r="E210">
         <v>5.73</v>
       </c>
-      <c r="F210" s="1">
+      <c r="F210">
         <v>6.55</v>
       </c>
-      <c r="G210" s="1">
+      <c r="G210">
         <v>6.79</v>
       </c>
-      <c r="H210" s="1">
-        <v>194.5</v>
-      </c>
-      <c r="I210" s="1">
-        <v>139</v>
-      </c>
-      <c r="J210" s="1">
-        <v>2353.5</v>
-      </c>
-      <c r="K210" s="1">
-        <v>211</v>
-      </c>
-      <c r="L210" s="1">
-        <v>1.55</v>
+      <c r="H210">
+        <v>436</v>
+      </c>
+      <c r="I210">
+        <v>312</v>
+      </c>
+      <c r="J210">
+        <v>5272</v>
+      </c>
+      <c r="K210">
+        <v>473</v>
+      </c>
+      <c r="L210">
+        <v>4</v>
       </c>
       <c r="M210" s="1" t="s">
         <v>18</v>
@@ -10516,29 +10516,29 @@
       <c r="D211" s="1">
         <v>3</v>
       </c>
-      <c r="E211" s="1">
+      <c r="E211">
         <v>5.87</v>
       </c>
-      <c r="F211" s="1">
+      <c r="F211">
         <v>6.68</v>
       </c>
-      <c r="G211" s="1">
+      <c r="G211">
         <v>6.81</v>
       </c>
-      <c r="H211" s="1">
-        <v>186</v>
-      </c>
-      <c r="I211" s="1">
-        <v>96</v>
-      </c>
-      <c r="J211" s="1">
-        <v>2547</v>
-      </c>
-      <c r="K211" s="1">
-        <v>182.5</v>
-      </c>
-      <c r="L211" s="1">
-        <v>1.5</v>
+      <c r="H211">
+        <v>417</v>
+      </c>
+      <c r="I211">
+        <v>216</v>
+      </c>
+      <c r="J211">
+        <v>5706</v>
+      </c>
+      <c r="K211">
+        <v>409</v>
+      </c>
+      <c r="L211">
+        <v>4</v>
       </c>
       <c r="M211" s="1" t="s">
         <v>18</v>
@@ -10563,29 +10563,29 @@
       <c r="D212" s="1">
         <v>3</v>
       </c>
-      <c r="E212" s="1">
+      <c r="E212">
         <v>5.94</v>
       </c>
-      <c r="F212" s="1">
+      <c r="F212">
         <v>6.75</v>
       </c>
-      <c r="G212" s="1">
+      <c r="G212">
         <v>6.89</v>
       </c>
-      <c r="H212" s="1">
-        <v>237.5</v>
-      </c>
-      <c r="I212" s="1">
-        <v>171.5</v>
-      </c>
-      <c r="J212" s="1">
-        <v>2501</v>
-      </c>
-      <c r="K212" s="1">
-        <v>231.5</v>
-      </c>
-      <c r="L212" s="1">
-        <v>1.65</v>
+      <c r="H212">
+        <v>532</v>
+      </c>
+      <c r="I212">
+        <v>385</v>
+      </c>
+      <c r="J212">
+        <v>5603</v>
+      </c>
+      <c r="K212">
+        <v>519</v>
+      </c>
+      <c r="L212">
+        <v>4</v>
       </c>
       <c r="M212" s="1" t="s">
         <v>23</v>
@@ -10610,29 +10610,29 @@
       <c r="D213" s="1">
         <v>3</v>
       </c>
-      <c r="E213" s="1">
+      <c r="E213">
         <v>5.95</v>
       </c>
-      <c r="F213" s="1">
+      <c r="F213">
         <v>6.75</v>
       </c>
-      <c r="G213" s="1">
+      <c r="G213">
         <v>6.84</v>
       </c>
-      <c r="H213" s="1">
-        <v>225.5</v>
-      </c>
-      <c r="I213" s="1">
-        <v>112</v>
-      </c>
-      <c r="J213" s="1">
-        <v>2546</v>
-      </c>
-      <c r="K213" s="1">
-        <v>191</v>
-      </c>
-      <c r="L213" s="1">
-        <v>1.6</v>
+      <c r="H213">
+        <v>506</v>
+      </c>
+      <c r="I213">
+        <v>251</v>
+      </c>
+      <c r="J213">
+        <v>5704</v>
+      </c>
+      <c r="K213">
+        <v>428</v>
+      </c>
+      <c r="L213">
+        <v>4</v>
       </c>
       <c r="M213" s="1" t="s">
         <v>23</v>
@@ -10657,29 +10657,29 @@
       <c r="D214" s="1">
         <v>3</v>
       </c>
-      <c r="E214" s="1">
+      <c r="E214">
         <v>5.99</v>
       </c>
-      <c r="F214" s="1">
+      <c r="F214">
         <v>6.79</v>
       </c>
-      <c r="G214" s="1">
+      <c r="G214">
         <v>6.91</v>
       </c>
-      <c r="H214" s="1">
-        <v>218</v>
-      </c>
-      <c r="I214" s="1">
-        <v>165.5</v>
-      </c>
-      <c r="J214" s="1">
-        <v>2676.5</v>
-      </c>
-      <c r="K214" s="1">
-        <v>238.5</v>
-      </c>
-      <c r="L214" s="1">
-        <v>3.95</v>
+      <c r="H214">
+        <v>489</v>
+      </c>
+      <c r="I214">
+        <v>371</v>
+      </c>
+      <c r="J214">
+        <v>5996</v>
+      </c>
+      <c r="K214">
+        <v>535</v>
+      </c>
+      <c r="L214">
+        <v>9</v>
       </c>
       <c r="M214" s="1" t="s">
         <v>30</v>
@@ -10704,29 +10704,29 @@
       <c r="D215" s="1">
         <v>3</v>
       </c>
-      <c r="E215" s="1">
+      <c r="E215">
         <v>5.82</v>
       </c>
-      <c r="F215" s="1">
+      <c r="F215">
         <v>6.64</v>
       </c>
-      <c r="G215" s="1">
+      <c r="G215">
         <v>6.78</v>
       </c>
-      <c r="H215" s="1">
-        <v>211</v>
-      </c>
-      <c r="I215" s="1">
-        <v>120.5</v>
-      </c>
-      <c r="J215" s="1">
-        <v>2628</v>
-      </c>
-      <c r="K215" s="1">
-        <v>189.5</v>
-      </c>
-      <c r="L215" s="1">
-        <v>4.3499999999999996</v>
+      <c r="H215">
+        <v>473</v>
+      </c>
+      <c r="I215">
+        <v>270</v>
+      </c>
+      <c r="J215">
+        <v>5887</v>
+      </c>
+      <c r="K215">
+        <v>425</v>
+      </c>
+      <c r="L215">
+        <v>10</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>30</v>
@@ -10751,29 +10751,29 @@
       <c r="D216" s="1">
         <v>3</v>
       </c>
-      <c r="E216" s="1">
+      <c r="E216">
         <v>5.84</v>
       </c>
-      <c r="F216" s="1">
+      <c r="F216">
         <v>6.65</v>
       </c>
-      <c r="G216" s="1">
+      <c r="G216">
         <v>6.82</v>
       </c>
-      <c r="H216" s="1">
-        <v>216.5</v>
-      </c>
-      <c r="I216" s="1">
-        <v>121.5</v>
-      </c>
-      <c r="J216" s="1">
-        <v>2481</v>
-      </c>
-      <c r="K216" s="1">
-        <v>219.5</v>
-      </c>
-      <c r="L216" s="1">
-        <v>1.4</v>
+      <c r="H216">
+        <v>485</v>
+      </c>
+      <c r="I216">
+        <v>273</v>
+      </c>
+      <c r="J216">
+        <v>5558</v>
+      </c>
+      <c r="K216">
+        <v>492</v>
+      </c>
+      <c r="L216">
+        <v>4</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>18</v>
@@ -10798,29 +10798,29 @@
       <c r="D217" s="1">
         <v>3</v>
       </c>
-      <c r="E217" s="1">
+      <c r="E217">
         <v>5.72</v>
       </c>
-      <c r="F217" s="1">
+      <c r="F217">
         <v>6.55</v>
       </c>
-      <c r="G217" s="1">
+      <c r="G217">
         <v>6.75</v>
       </c>
-      <c r="H217" s="1">
-        <v>200.5</v>
-      </c>
-      <c r="I217" s="1">
-        <v>90</v>
-      </c>
-      <c r="J217" s="1">
-        <v>2433</v>
-      </c>
-      <c r="K217" s="1">
-        <v>172.5</v>
-      </c>
-      <c r="L217" s="1">
-        <v>1.3</v>
+      <c r="H217">
+        <v>450</v>
+      </c>
+      <c r="I217">
+        <v>202</v>
+      </c>
+      <c r="J217">
+        <v>5450</v>
+      </c>
+      <c r="K217">
+        <v>387</v>
+      </c>
+      <c r="L217">
+        <v>3</v>
       </c>
       <c r="M217" s="1" t="s">
         <v>18</v>
@@ -10845,29 +10845,29 @@
       <c r="D218" s="1">
         <v>3</v>
       </c>
-      <c r="E218" s="1">
+      <c r="E218">
         <v>5.63</v>
       </c>
-      <c r="F218" s="1">
+      <c r="F218">
         <v>6.46</v>
       </c>
-      <c r="G218" s="1">
+      <c r="G218">
         <v>6.75</v>
       </c>
-      <c r="H218" s="1">
-        <v>221.5</v>
-      </c>
-      <c r="I218" s="1">
-        <v>174.5</v>
-      </c>
-      <c r="J218" s="1">
-        <v>2332.5</v>
-      </c>
-      <c r="K218" s="1">
-        <v>218.5</v>
-      </c>
-      <c r="L218" s="1">
-        <v>1.7</v>
+      <c r="H218">
+        <v>497</v>
+      </c>
+      <c r="I218">
+        <v>391</v>
+      </c>
+      <c r="J218">
+        <v>5225</v>
+      </c>
+      <c r="K218">
+        <v>490</v>
+      </c>
+      <c r="L218">
+        <v>4</v>
       </c>
       <c r="M218" s="1" t="s">
         <v>30</v>
@@ -10892,29 +10892,29 @@
       <c r="D219" s="1">
         <v>3</v>
       </c>
-      <c r="E219" s="1">
+      <c r="E219">
         <v>5.83</v>
       </c>
-      <c r="F219" s="1">
+      <c r="F219">
         <v>6.65</v>
       </c>
-      <c r="G219" s="1">
+      <c r="G219">
         <v>6.8</v>
       </c>
-      <c r="H219" s="1">
-        <v>207.5</v>
-      </c>
-      <c r="I219" s="1">
-        <v>114</v>
-      </c>
-      <c r="J219" s="1">
-        <v>2455</v>
-      </c>
-      <c r="K219" s="1">
-        <v>194.5</v>
-      </c>
-      <c r="L219" s="1">
-        <v>1.4</v>
+      <c r="H219">
+        <v>465</v>
+      </c>
+      <c r="I219">
+        <v>256</v>
+      </c>
+      <c r="J219">
+        <v>5500</v>
+      </c>
+      <c r="K219">
+        <v>436</v>
+      </c>
+      <c r="L219">
+        <v>4</v>
       </c>
       <c r="M219" s="1" t="s">
         <v>30</v>
@@ -10939,29 +10939,29 @@
       <c r="D220" s="1">
         <v>3</v>
       </c>
-      <c r="E220" s="1">
+      <c r="E220">
         <v>5.79</v>
       </c>
-      <c r="F220" s="1">
+      <c r="F220">
         <v>6.61</v>
       </c>
-      <c r="G220" s="1">
+      <c r="G220">
         <v>6.8</v>
       </c>
-      <c r="H220" s="1">
-        <v>211</v>
-      </c>
-      <c r="I220" s="1">
-        <v>227.5</v>
-      </c>
-      <c r="J220" s="1">
-        <v>2406.5</v>
-      </c>
-      <c r="K220" s="1">
-        <v>224</v>
-      </c>
-      <c r="L220" s="1">
-        <v>3.7</v>
+      <c r="H220">
+        <v>473</v>
+      </c>
+      <c r="I220">
+        <v>510</v>
+      </c>
+      <c r="J220">
+        <v>5391</v>
+      </c>
+      <c r="K220">
+        <v>502</v>
+      </c>
+      <c r="L220">
+        <v>9</v>
       </c>
       <c r="M220" s="1" t="s">
         <v>23</v>
@@ -10986,29 +10986,29 @@
       <c r="D221" s="1">
         <v>3</v>
       </c>
-      <c r="E221" s="1">
+      <c r="E221">
         <v>5.97</v>
       </c>
-      <c r="F221" s="1">
+      <c r="F221">
         <v>6.77</v>
       </c>
-      <c r="G221" s="1">
+      <c r="G221">
         <v>6.85</v>
       </c>
-      <c r="H221" s="1">
-        <v>203.5</v>
-      </c>
-      <c r="I221" s="1">
-        <v>127</v>
-      </c>
-      <c r="J221" s="1">
-        <v>2434</v>
-      </c>
-      <c r="K221" s="1">
-        <v>192.5</v>
-      </c>
-      <c r="L221" s="1">
-        <v>2.7</v>
+      <c r="H221">
+        <v>456</v>
+      </c>
+      <c r="I221">
+        <v>285</v>
+      </c>
+      <c r="J221">
+        <v>5453</v>
+      </c>
+      <c r="K221">
+        <v>432</v>
+      </c>
+      <c r="L221">
+        <v>7</v>
       </c>
       <c r="M221" s="1" t="s">
         <v>23</v>
@@ -11033,29 +11033,29 @@
       <c r="D222" s="1">
         <v>3</v>
       </c>
-      <c r="E222" s="1">
+      <c r="E222">
         <v>5.82</v>
       </c>
-      <c r="F222" s="1">
+      <c r="F222">
         <v>6.64</v>
       </c>
-      <c r="G222" s="1">
+      <c r="G222">
         <v>6.84</v>
       </c>
-      <c r="H222" s="1">
-        <v>200.5</v>
-      </c>
-      <c r="I222" s="1">
-        <v>125</v>
-      </c>
-      <c r="J222" s="1">
-        <v>2382.5</v>
-      </c>
-      <c r="K222" s="1">
-        <v>211</v>
-      </c>
-      <c r="L222" s="1">
-        <v>1.8</v>
+      <c r="H222">
+        <v>450</v>
+      </c>
+      <c r="I222">
+        <v>280</v>
+      </c>
+      <c r="J222">
+        <v>5337</v>
+      </c>
+      <c r="K222">
+        <v>473</v>
+      </c>
+      <c r="L222">
+        <v>5</v>
       </c>
       <c r="M222" s="1" t="s">
         <v>18</v>
@@ -11080,29 +11080,29 @@
       <c r="D223" s="1">
         <v>3</v>
       </c>
-      <c r="E223" s="1">
+      <c r="E223">
         <v>5.8</v>
       </c>
-      <c r="F223" s="1">
+      <c r="F223">
         <v>6.62</v>
       </c>
-      <c r="G223" s="1">
+      <c r="G223">
         <v>6.8</v>
       </c>
-      <c r="H223" s="1">
-        <v>218</v>
-      </c>
-      <c r="I223" s="1">
-        <v>92.5</v>
-      </c>
-      <c r="J223" s="1">
-        <v>2572</v>
-      </c>
-      <c r="K223" s="1">
-        <v>175</v>
-      </c>
-      <c r="L223" s="1">
-        <v>1.25</v>
+      <c r="H223">
+        <v>489</v>
+      </c>
+      <c r="I223">
+        <v>208</v>
+      </c>
+      <c r="J223">
+        <v>5762</v>
+      </c>
+      <c r="K223">
+        <v>392</v>
+      </c>
+      <c r="L223">
+        <v>3</v>
       </c>
       <c r="M223" s="1" t="s">
         <v>18</v>
@@ -11127,29 +11127,29 @@
       <c r="D224" s="1">
         <v>3</v>
       </c>
-      <c r="E224" s="1">
+      <c r="E224">
         <v>5.67</v>
       </c>
-      <c r="F224" s="1">
+      <c r="F224">
         <v>6.5</v>
       </c>
-      <c r="G224" s="1">
+      <c r="G224">
         <v>6.74</v>
       </c>
-      <c r="H224" s="1">
-        <v>221.5</v>
-      </c>
-      <c r="I224" s="1">
-        <v>169.5</v>
-      </c>
-      <c r="J224" s="1">
-        <v>2262</v>
-      </c>
-      <c r="K224" s="1">
-        <v>213</v>
-      </c>
-      <c r="L224" s="1">
-        <v>1.85</v>
+      <c r="H224">
+        <v>497</v>
+      </c>
+      <c r="I224">
+        <v>380</v>
+      </c>
+      <c r="J224">
+        <v>5067</v>
+      </c>
+      <c r="K224">
+        <v>478</v>
+      </c>
+      <c r="L224">
+        <v>5</v>
       </c>
       <c r="M224" s="1" t="s">
         <v>18</v>
@@ -11174,29 +11174,29 @@
       <c r="D225" s="1">
         <v>3</v>
       </c>
-      <c r="E225" s="1">
+      <c r="E225">
         <v>5.72</v>
       </c>
-      <c r="F225" s="1">
+      <c r="F225">
         <v>6.55</v>
       </c>
-      <c r="G225" s="1">
+      <c r="G225">
         <v>6.81</v>
       </c>
-      <c r="H225" s="1">
-        <v>216</v>
-      </c>
-      <c r="I225" s="1">
-        <v>109</v>
-      </c>
-      <c r="J225" s="1">
-        <v>2401.5</v>
-      </c>
-      <c r="K225" s="1">
-        <v>193</v>
-      </c>
-      <c r="L225" s="1">
-        <v>1.75</v>
+      <c r="H225">
+        <v>484</v>
+      </c>
+      <c r="I225">
+        <v>245</v>
+      </c>
+      <c r="J225">
+        <v>5380</v>
+      </c>
+      <c r="K225">
+        <v>433</v>
+      </c>
+      <c r="L225">
+        <v>4</v>
       </c>
       <c r="M225" s="1" t="s">
         <v>18</v>
@@ -11221,29 +11221,29 @@
       <c r="D226" s="1">
         <v>3</v>
       </c>
-      <c r="E226" s="1">
+      <c r="E226">
         <v>5.93</v>
       </c>
-      <c r="F226" s="1">
+      <c r="F226">
         <v>6.74</v>
       </c>
-      <c r="G226" s="1">
+      <c r="G226">
         <v>6.88</v>
       </c>
-      <c r="H226" s="1">
-        <v>214.5</v>
-      </c>
-      <c r="I226" s="1">
-        <v>179</v>
-      </c>
-      <c r="J226" s="1">
-        <v>2403</v>
-      </c>
-      <c r="K226" s="1">
-        <v>221.5</v>
-      </c>
-      <c r="L226" s="1">
-        <v>4.05</v>
+      <c r="H226">
+        <v>481</v>
+      </c>
+      <c r="I226">
+        <v>401</v>
+      </c>
+      <c r="J226">
+        <v>5383</v>
+      </c>
+      <c r="K226">
+        <v>497</v>
+      </c>
+      <c r="L226">
+        <v>10</v>
       </c>
       <c r="M226" s="1" t="s">
         <v>30</v>
@@ -11268,29 +11268,29 @@
       <c r="D227" s="1">
         <v>3</v>
       </c>
-      <c r="E227" s="1">
+      <c r="E227">
         <v>5.89</v>
       </c>
-      <c r="F227" s="1">
+      <c r="F227">
         <v>6.7</v>
       </c>
-      <c r="G227" s="1">
+      <c r="G227">
         <v>6.91</v>
       </c>
-      <c r="H227" s="1">
-        <v>204.5</v>
-      </c>
-      <c r="I227" s="1">
-        <v>106.5</v>
-      </c>
-      <c r="J227" s="1">
-        <v>2405</v>
-      </c>
-      <c r="K227" s="1">
-        <v>181.5</v>
-      </c>
-      <c r="L227" s="1">
-        <v>4</v>
+      <c r="H227">
+        <v>459</v>
+      </c>
+      <c r="I227">
+        <v>239</v>
+      </c>
+      <c r="J227">
+        <v>5388</v>
+      </c>
+      <c r="K227">
+        <v>407</v>
+      </c>
+      <c r="L227">
+        <v>9</v>
       </c>
       <c r="M227" s="1" t="s">
         <v>30</v>
@@ -11315,29 +11315,29 @@
       <c r="D228" s="1">
         <v>3</v>
       </c>
-      <c r="E228" s="1">
+      <c r="E228">
         <v>5.91</v>
       </c>
-      <c r="F228" s="1">
+      <c r="F228">
         <v>6.72</v>
       </c>
-      <c r="G228" s="1">
+      <c r="G228">
         <v>6.87</v>
       </c>
-      <c r="H228" s="1">
-        <v>213.5</v>
-      </c>
-      <c r="I228" s="1">
-        <v>181</v>
-      </c>
-      <c r="J228" s="1">
-        <v>2194</v>
-      </c>
-      <c r="K228" s="1">
-        <v>204.5</v>
-      </c>
-      <c r="L228" s="1">
-        <v>1.2</v>
+      <c r="H228">
+        <v>479</v>
+      </c>
+      <c r="I228">
+        <v>406</v>
+      </c>
+      <c r="J228">
+        <v>4915</v>
+      </c>
+      <c r="K228">
+        <v>459</v>
+      </c>
+      <c r="L228">
+        <v>3</v>
       </c>
       <c r="M228" s="1" t="s">
         <v>23</v>
@@ -11362,29 +11362,29 @@
       <c r="D229" s="1">
         <v>3</v>
       </c>
-      <c r="E229" s="1">
+      <c r="E229">
         <v>5.96</v>
       </c>
-      <c r="F229" s="1">
+      <c r="F229">
         <v>6.76</v>
       </c>
-      <c r="G229" s="1">
+      <c r="G229">
         <v>6.95</v>
       </c>
-      <c r="H229" s="1">
-        <v>198.5</v>
-      </c>
-      <c r="I229" s="1">
-        <v>100.5</v>
-      </c>
-      <c r="J229" s="1">
-        <v>2582</v>
-      </c>
-      <c r="K229" s="1">
-        <v>181</v>
-      </c>
-      <c r="L229" s="1">
-        <v>1.25</v>
+      <c r="H229">
+        <v>445</v>
+      </c>
+      <c r="I229">
+        <v>226</v>
+      </c>
+      <c r="J229">
+        <v>5784</v>
+      </c>
+      <c r="K229">
+        <v>406</v>
+      </c>
+      <c r="L229">
+        <v>3</v>
       </c>
       <c r="M229" s="1" t="s">
         <v>23</v>
@@ -11409,29 +11409,29 @@
       <c r="D230" s="1">
         <v>3</v>
       </c>
-      <c r="E230" s="1">
+      <c r="E230">
         <v>6.11</v>
       </c>
-      <c r="F230" s="1">
+      <c r="F230">
         <v>6.9</v>
       </c>
-      <c r="G230" s="1">
+      <c r="G230">
         <v>6.97</v>
       </c>
-      <c r="H230" s="1">
-        <v>233.5</v>
-      </c>
-      <c r="I230" s="1">
-        <v>211</v>
-      </c>
-      <c r="J230" s="1">
-        <v>2553</v>
-      </c>
-      <c r="K230" s="1">
-        <v>246.5</v>
-      </c>
-      <c r="L230" s="1">
-        <v>9.9499999999999993</v>
+      <c r="H230">
+        <v>524</v>
+      </c>
+      <c r="I230">
+        <v>473</v>
+      </c>
+      <c r="J230">
+        <v>5719</v>
+      </c>
+      <c r="K230">
+        <v>553</v>
+      </c>
+      <c r="L230">
+        <v>23</v>
       </c>
       <c r="M230" s="1" t="s">
         <v>18</v>
@@ -11456,29 +11456,29 @@
       <c r="D231" s="1">
         <v>3</v>
       </c>
-      <c r="E231" s="1">
+      <c r="E231">
         <v>6</v>
       </c>
-      <c r="F231" s="1">
+      <c r="F231">
         <v>6.8</v>
       </c>
-      <c r="G231" s="1">
+      <c r="G231">
         <v>6.94</v>
       </c>
-      <c r="H231" s="1">
-        <v>219.5</v>
-      </c>
-      <c r="I231" s="1">
-        <v>108</v>
-      </c>
-      <c r="J231" s="1">
-        <v>2571</v>
-      </c>
-      <c r="K231" s="1">
-        <v>204</v>
-      </c>
-      <c r="L231" s="1">
-        <v>10.8</v>
+      <c r="H231">
+        <v>492</v>
+      </c>
+      <c r="I231">
+        <v>242</v>
+      </c>
+      <c r="J231">
+        <v>5760</v>
+      </c>
+      <c r="K231">
+        <v>457</v>
+      </c>
+      <c r="L231">
+        <v>25</v>
       </c>
       <c r="M231" s="1" t="s">
         <v>18</v>
@@ -11503,29 +11503,29 @@
       <c r="D232" s="1">
         <v>3</v>
       </c>
-      <c r="E232" s="1">
+      <c r="E232">
         <v>6.03</v>
       </c>
-      <c r="F232" s="1">
+      <c r="F232">
         <v>6.83</v>
       </c>
-      <c r="G232" s="1">
+      <c r="G232">
         <v>6.92</v>
       </c>
-      <c r="H232" s="1">
-        <v>207</v>
-      </c>
-      <c r="I232" s="1">
-        <v>148</v>
-      </c>
-      <c r="J232" s="1">
-        <v>2442</v>
-      </c>
-      <c r="K232" s="1">
-        <v>218.5</v>
-      </c>
-      <c r="L232" s="1">
-        <v>7.2</v>
+      <c r="H232">
+        <v>464</v>
+      </c>
+      <c r="I232">
+        <v>332</v>
+      </c>
+      <c r="J232">
+        <v>5471</v>
+      </c>
+      <c r="K232">
+        <v>490</v>
+      </c>
+      <c r="L232">
+        <v>17</v>
       </c>
       <c r="M232" s="1" t="s">
         <v>30</v>
@@ -11550,29 +11550,29 @@
       <c r="D233" s="1">
         <v>3</v>
       </c>
-      <c r="E233" s="1">
+      <c r="E233">
         <v>6.07</v>
       </c>
-      <c r="F233" s="1">
+      <c r="F233">
         <v>6.86</v>
       </c>
-      <c r="G233" s="1">
+      <c r="G233">
         <v>6.98</v>
       </c>
-      <c r="H233" s="1">
-        <v>207</v>
-      </c>
-      <c r="I233" s="1">
-        <v>100.5</v>
-      </c>
-      <c r="J233" s="1">
-        <v>2589</v>
-      </c>
-      <c r="K233" s="1">
-        <v>188.5</v>
-      </c>
-      <c r="L233" s="1">
-        <v>7.35</v>
+      <c r="H233">
+        <v>464</v>
+      </c>
+      <c r="I233">
+        <v>226</v>
+      </c>
+      <c r="J233">
+        <v>5800</v>
+      </c>
+      <c r="K233">
+        <v>423</v>
+      </c>
+      <c r="L233">
+        <v>17</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>30</v>
@@ -11597,29 +11597,29 @@
       <c r="D234" s="1">
         <v>3</v>
       </c>
-      <c r="E234" s="1">
+      <c r="E234">
         <v>5.83</v>
       </c>
-      <c r="F234" s="1">
+      <c r="F234">
         <v>6.65</v>
       </c>
-      <c r="G234" s="1">
+      <c r="G234">
         <v>6.86</v>
       </c>
-      <c r="H234" s="1">
-        <v>209</v>
-      </c>
-      <c r="I234" s="1">
-        <v>172.5</v>
-      </c>
-      <c r="J234" s="1">
-        <v>2280</v>
-      </c>
-      <c r="K234" s="1">
-        <v>213.5</v>
-      </c>
-      <c r="L234" s="1">
-        <v>1.55</v>
+      <c r="H234">
+        <v>469</v>
+      </c>
+      <c r="I234">
+        <v>387</v>
+      </c>
+      <c r="J234">
+        <v>5108</v>
+      </c>
+      <c r="K234">
+        <v>479</v>
+      </c>
+      <c r="L234">
+        <v>4</v>
       </c>
       <c r="M234" s="1" t="s">
         <v>23</v>
@@ -11644,29 +11644,29 @@
       <c r="D235" s="1">
         <v>3</v>
       </c>
-      <c r="E235" s="1">
+      <c r="E235">
         <v>5.85</v>
       </c>
-      <c r="F235" s="1">
+      <c r="F235">
         <v>6.66</v>
       </c>
-      <c r="G235" s="1">
+      <c r="G235">
         <v>6.9</v>
       </c>
-      <c r="H235" s="1">
-        <v>190</v>
-      </c>
-      <c r="I235" s="1">
-        <v>92.5</v>
-      </c>
-      <c r="J235" s="1">
-        <v>2411</v>
-      </c>
-      <c r="K235" s="1">
-        <v>177</v>
-      </c>
-      <c r="L235" s="1">
-        <v>1.35</v>
+      <c r="H235">
+        <v>426</v>
+      </c>
+      <c r="I235">
+        <v>208</v>
+      </c>
+      <c r="J235">
+        <v>5401</v>
+      </c>
+      <c r="K235">
+        <v>397</v>
+      </c>
+      <c r="L235">
+        <v>4</v>
       </c>
       <c r="M235" s="1" t="s">
         <v>23</v>
@@ -11691,29 +11691,29 @@
       <c r="D236" s="1">
         <v>3</v>
       </c>
-      <c r="E236" s="1">
+      <c r="E236">
         <v>6.06</v>
       </c>
-      <c r="F236" s="1">
+      <c r="F236">
         <v>6.85</v>
       </c>
-      <c r="G236" s="1">
+      <c r="G236">
         <v>6.94</v>
       </c>
-      <c r="H236" s="1">
-        <v>211.5</v>
-      </c>
-      <c r="I236" s="1">
-        <v>128</v>
-      </c>
-      <c r="J236" s="1">
-        <v>2323</v>
-      </c>
-      <c r="K236" s="1">
-        <v>215.5</v>
-      </c>
-      <c r="L236" s="1">
-        <v>8</v>
+      <c r="H236">
+        <v>474</v>
+      </c>
+      <c r="I236">
+        <v>287</v>
+      </c>
+      <c r="J236">
+        <v>5204</v>
+      </c>
+      <c r="K236">
+        <v>483</v>
+      </c>
+      <c r="L236">
+        <v>18</v>
       </c>
       <c r="M236" s="1" t="s">
         <v>30</v>
@@ -11738,29 +11738,29 @@
       <c r="D237" s="1">
         <v>3</v>
       </c>
-      <c r="E237" s="1">
+      <c r="E237">
         <v>5.93</v>
       </c>
-      <c r="F237" s="1">
+      <c r="F237">
         <v>6.74</v>
       </c>
-      <c r="G237" s="1">
+      <c r="G237">
         <v>6.95</v>
       </c>
-      <c r="H237" s="1">
-        <v>204.5</v>
-      </c>
-      <c r="I237" s="1">
-        <v>90.5</v>
-      </c>
-      <c r="J237" s="1">
-        <v>2283</v>
-      </c>
-      <c r="K237" s="1">
-        <v>172</v>
-      </c>
-      <c r="L237" s="1">
-        <v>6.7</v>
+      <c r="H237">
+        <v>459</v>
+      </c>
+      <c r="I237">
+        <v>203</v>
+      </c>
+      <c r="J237">
+        <v>5114</v>
+      </c>
+      <c r="K237">
+        <v>386</v>
+      </c>
+      <c r="L237">
+        <v>16</v>
       </c>
       <c r="M237" s="1" t="s">
         <v>30</v>
@@ -11785,29 +11785,29 @@
       <c r="D238" s="1">
         <v>3</v>
       </c>
-      <c r="E238" s="1">
+      <c r="E238">
         <v>5.96</v>
       </c>
-      <c r="F238" s="1">
+      <c r="F238">
         <v>6.76</v>
       </c>
-      <c r="G238" s="1">
+      <c r="G238">
         <v>6.91</v>
       </c>
-      <c r="H238" s="1">
-        <v>201.5</v>
-      </c>
-      <c r="I238" s="1">
-        <v>131</v>
-      </c>
-      <c r="J238" s="1">
-        <v>2317</v>
-      </c>
-      <c r="K238" s="1">
-        <v>211</v>
-      </c>
-      <c r="L238" s="1">
-        <v>15.6</v>
+      <c r="H238">
+        <v>452</v>
+      </c>
+      <c r="I238">
+        <v>294</v>
+      </c>
+      <c r="J238">
+        <v>5191</v>
+      </c>
+      <c r="K238">
+        <v>473</v>
+      </c>
+      <c r="L238">
+        <v>35</v>
       </c>
       <c r="M238" s="1" t="s">
         <v>23</v>
@@ -11832,29 +11832,29 @@
       <c r="D239" s="1">
         <v>3</v>
       </c>
-      <c r="E239" s="1">
+      <c r="E239">
         <v>5.98</v>
       </c>
-      <c r="F239" s="1">
+      <c r="F239">
         <v>6.78</v>
       </c>
-      <c r="G239" s="1">
+      <c r="G239">
         <v>6.95</v>
       </c>
-      <c r="H239" s="1">
-        <v>199.5</v>
-      </c>
-      <c r="I239" s="1">
-        <v>96</v>
-      </c>
-      <c r="J239" s="1">
-        <v>2326.5</v>
-      </c>
-      <c r="K239" s="1">
-        <v>179</v>
-      </c>
-      <c r="L239" s="1">
-        <v>15.8</v>
+      <c r="H239">
+        <v>447</v>
+      </c>
+      <c r="I239">
+        <v>216</v>
+      </c>
+      <c r="J239">
+        <v>5212</v>
+      </c>
+      <c r="K239">
+        <v>401</v>
+      </c>
+      <c r="L239">
+        <v>36</v>
       </c>
       <c r="M239" s="1" t="s">
         <v>23</v>
@@ -11879,29 +11879,29 @@
       <c r="D240" s="1">
         <v>3</v>
       </c>
-      <c r="E240" s="1">
+      <c r="E240">
         <v>5.86</v>
       </c>
-      <c r="F240" s="1">
+      <c r="F240">
         <v>6.67</v>
       </c>
-      <c r="G240" s="1">
+      <c r="G240">
         <v>6.87</v>
       </c>
-      <c r="H240" s="1">
-        <v>176</v>
-      </c>
-      <c r="I240" s="1">
-        <v>113.5</v>
-      </c>
-      <c r="J240" s="1">
-        <v>2207</v>
-      </c>
-      <c r="K240" s="1">
-        <v>197.5</v>
-      </c>
-      <c r="L240" s="1">
-        <v>4</v>
+      <c r="H240">
+        <v>395</v>
+      </c>
+      <c r="I240">
+        <v>255</v>
+      </c>
+      <c r="J240">
+        <v>4944</v>
+      </c>
+      <c r="K240">
+        <v>443</v>
+      </c>
+      <c r="L240">
+        <v>9</v>
       </c>
       <c r="M240" s="1" t="s">
         <v>18</v>
@@ -11926,29 +11926,29 @@
       <c r="D241" s="1">
         <v>3</v>
       </c>
-      <c r="E241" s="1">
+      <c r="E241">
         <v>5.89</v>
       </c>
-      <c r="F241" s="1">
+      <c r="F241">
         <v>6.7</v>
       </c>
-      <c r="G241" s="1">
+      <c r="G241">
         <v>6.9</v>
       </c>
-      <c r="H241" s="1">
-        <v>175</v>
-      </c>
-      <c r="I241" s="1">
-        <v>78.5</v>
-      </c>
-      <c r="J241" s="1">
-        <v>2356.5</v>
-      </c>
-      <c r="K241" s="1">
-        <v>178.5</v>
-      </c>
-      <c r="L241" s="1">
-        <v>4.4000000000000004</v>
+      <c r="H241">
+        <v>392</v>
+      </c>
+      <c r="I241">
+        <v>176</v>
+      </c>
+      <c r="J241">
+        <v>5279</v>
+      </c>
+      <c r="K241">
+        <v>400</v>
+      </c>
+      <c r="L241">
+        <v>10</v>
       </c>
       <c r="M241" s="1" t="s">
         <v>18</v>
